--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashs\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASrivastava5-adm\git\NMTS\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="55">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Service Profile</t>
   </si>
   <si>
-    <t>Search Criteria</t>
-  </si>
-  <si>
     <t>Number Status</t>
   </si>
   <si>
@@ -108,13 +106,97 @@
   </si>
   <si>
     <t>EC2A 3EZ</t>
+  </si>
+  <si>
+    <t>Number Range</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>main number</t>
+  </si>
+  <si>
+    <t>RangeStart</t>
+  </si>
+  <si>
+    <t>RangeEnd</t>
+  </si>
+  <si>
+    <t>UserAction</t>
+  </si>
+  <si>
+    <t>Activate</t>
+  </si>
+  <si>
+    <t>Search Creteria</t>
+  </si>
+  <si>
+    <t>Transaction id</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>FEFWEFWFWEEFE</t>
+  </si>
+  <si>
+    <t>Acivated</t>
+  </si>
+  <si>
+    <t>Deactivated</t>
+  </si>
+  <si>
+    <t>TransaCTION Type (Only for informartion)</t>
+  </si>
+  <si>
+    <t>Activated</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>efbdfab1-5b74-4270-bd2b-02f35b501c86</t>
+  </si>
+  <si>
+    <t>ryuururtyury</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Number Range)</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Transaction Id)</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Customer Reference)</t>
+  </si>
+  <si>
+    <t>Number Status Number Status)</t>
+  </si>
+  <si>
+    <t>Quarantined</t>
+  </si>
+  <si>
+    <t>Port In(Allocated)</t>
+  </si>
+  <si>
+    <t>Port In(Activated)</t>
+  </si>
+  <si>
+    <t>Port Out</t>
+  </si>
+  <si>
+    <t>Returned</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +239,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,7 +276,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -189,34 +286,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -226,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,11 +310,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,10 +320,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,51 +673,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="3" max="3" width="16.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="20.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="16" customWidth="1"/>
+    <col min="10" max="11" width="23.5703125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="16"/>
+    <col min="16" max="16" width="11.5703125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="16" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="16"/>
+    <col min="20" max="20" width="12" style="16" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="41.28515625" style="17" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5">
+        <v>123</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>128</v>
+      </c>
+      <c r="R3" s="8">
+        <v>9902</v>
+      </c>
+      <c r="S3" s="8">
+        <v>9902</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
+        <f>COLUMN(Q3)</f>
+        <v>17</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>21312213</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>213213</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="5">
+        <v>123</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="5">
+        <v>123</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5">
+        <v>123</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="5">
+        <v>123</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5">
+        <v>123</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="5">
+        <v>123</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="5">
+        <v>123</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="25"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="5">
+        <v>123</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="25"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5">
+        <v>123</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B8:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="12" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,85 +1516,246 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="G2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7">
-        <v>123456</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="7">
-        <v>123</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="D3:D14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B3:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMTS\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGupta8-adm\git\NMTS\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="3330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="81">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -221,6 +221,57 @@
   </si>
   <si>
     <t>Number Enquiry (Number Status)</t>
+  </si>
+  <si>
+    <t>Address Update</t>
+  </si>
+  <si>
+    <t>WithAddress</t>
+  </si>
+  <si>
+    <t>WithoutAddress</t>
+  </si>
+  <si>
+    <t>Reserve to activate with Address</t>
+  </si>
+  <si>
+    <t>Reserve to Activate without Address</t>
+  </si>
+  <si>
+    <t>Free to Activate with Address</t>
+  </si>
+  <si>
+    <t>Free to Activate Without Address</t>
+  </si>
+  <si>
+    <t>Update the Address with port-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update the Address with Activate </t>
+  </si>
+  <si>
+    <t>Select the Address operation if needed</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>Activate to Deactivate with port-in Scenario</t>
+  </si>
+  <si>
+    <t>Activate to Deactivate with Activate Senario</t>
+  </si>
+  <si>
+    <t>Reactivate Scenario</t>
+  </si>
+  <si>
+    <t>Reactivate</t>
+  </si>
+  <si>
+    <t>StatusQuesryTransactionID</t>
+  </si>
+  <si>
+    <t>Free to Reserve</t>
   </si>
 </sst>
 </file>
@@ -397,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,26 +521,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,11 +563,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,42 +876,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="47.42578125" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
-    </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="37"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -906,13 +987,19 @@
       <c r="W2" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -969,15 +1056,17 @@
       <c r="U3" s="22"/>
       <c r="V3" s="24"/>
       <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1013,11 +1102,13 @@
         <v>39</v>
       </c>
       <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1050,15 +1141,17 @@
         <v>40</v>
       </c>
       <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="30"/>
+      <c r="B6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="47"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1089,11 +1182,13 @@
       <c r="U6" s="5"/>
       <c r="V6" s="25"/>
       <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1124,15 +1219,17 @@
       <c r="U7" s="5"/>
       <c r="V7" s="25"/>
       <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="30"/>
+      <c r="B8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
@@ -1179,11 +1276,13 @@
       <c r="U8" s="5"/>
       <c r="V8" s="25"/>
       <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1234,11 +1333,13 @@
       <c r="W9" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1287,11 +1388,13 @@
       <c r="U10" s="5"/>
       <c r="V10" s="25"/>
       <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1338,11 +1441,13 @@
       <c r="U11" s="5"/>
       <c r="V11" s="25"/>
       <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1389,11 +1494,13 @@
       <c r="U12" s="5"/>
       <c r="V12" s="25"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="31"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
@@ -1440,11 +1547,13 @@
       <c r="U13" s="5"/>
       <c r="V13" s="25"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="31"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1491,11 +1600,13 @@
       <c r="U14" s="5"/>
       <c r="V14" s="25"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="31"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1542,11 +1653,13 @@
       <c r="U15" s="5"/>
       <c r="V15" s="25"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
@@ -1593,11 +1706,13 @@
       <c r="U16" s="5"/>
       <c r="V16" s="25"/>
       <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="32"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
@@ -1644,8 +1759,10 @@
       <c r="U17" s="5"/>
       <c r="V17" s="25"/>
       <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1707,15 +1824,17 @@
       <c r="U18" s="22"/>
       <c r="V18" s="24"/>
       <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1751,11 +1870,13 @@
         <v>39</v>
       </c>
       <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1788,15 +1909,17 @@
         <v>40</v>
       </c>
       <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1827,11 +1950,13 @@
       <c r="U21" s="5"/>
       <c r="V21" s="25"/>
       <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="32"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1862,15 +1987,17 @@
       <c r="U22" s="5"/>
       <c r="V22" s="25"/>
       <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
@@ -1917,11 +2044,13 @@
       <c r="U23" s="5"/>
       <c r="V23" s="25"/>
       <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="31"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
@@ -1970,11 +2099,13 @@
       <c r="U24" s="5"/>
       <c r="V24" s="25"/>
       <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="31"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+    </row>
+    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="18" t="s">
         <v>9</v>
       </c>
@@ -2021,11 +2152,13 @@
       <c r="U25" s="5"/>
       <c r="V25" s="25"/>
       <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="31"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+    </row>
+    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
@@ -2072,11 +2205,13 @@
       <c r="U26" s="5"/>
       <c r="V26" s="25"/>
       <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="31"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="18" t="s">
         <v>9</v>
       </c>
@@ -2123,11 +2258,13 @@
       <c r="U27" s="5"/>
       <c r="V27" s="25"/>
       <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="31"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+    </row>
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="18" t="s">
         <v>9</v>
       </c>
@@ -2174,11 +2311,13 @@
       <c r="U28" s="5"/>
       <c r="V28" s="25"/>
       <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="31"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
@@ -2225,11 +2364,13 @@
       <c r="U29" s="5"/>
       <c r="V29" s="25"/>
       <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="31"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+    </row>
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
@@ -2276,11 +2417,13 @@
       <c r="U30" s="5"/>
       <c r="V30" s="25"/>
       <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="32"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+    </row>
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="18" t="s">
         <v>9</v>
       </c>
@@ -2327,8 +2470,10 @@
       <c r="U31" s="5"/>
       <c r="V31" s="25"/>
       <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+    </row>
+    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2394,33 +2539,33 @@
       <c r="W32" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="2">
         <v>123456</v>
       </c>
@@ -2442,34 +2587,24 @@
       <c r="P33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q33" s="5">
-        <v>128</v>
-      </c>
-      <c r="R33" s="5">
-        <v>9902</v>
-      </c>
-      <c r="S33" s="5">
-        <v>9902</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U33" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="V33" s="24"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="5"/>
+      <c r="V33" s="25"/>
       <c r="W33" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="18" t="s">
         <v>9</v>
       </c>
@@ -2483,9 +2618,11 @@
         <v>19</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J34" s="2">
         <v>123456</v>
       </c>
@@ -2516,13 +2653,15 @@
       <c r="U34" s="5"/>
       <c r="V34" s="25"/>
       <c r="W34" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="31"/>
+        <v>58</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="18" t="s">
         <v>9</v>
       </c>
@@ -2571,13 +2710,17 @@
       <c r="U35" s="5"/>
       <c r="V35" s="25"/>
       <c r="W35" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="5"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
@@ -2626,13 +2769,17 @@
       <c r="U36" s="5"/>
       <c r="V36" s="25"/>
       <c r="W36" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y36" s="5"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
@@ -2679,11 +2826,13 @@
       <c r="U37" s="5"/>
       <c r="V37" s="25"/>
       <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="31"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="18" t="s">
         <v>9</v>
       </c>
@@ -2730,11 +2879,13 @@
       <c r="U38" s="5"/>
       <c r="V38" s="25"/>
       <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="31"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="18" t="s">
         <v>9</v>
       </c>
@@ -2781,11 +2932,13 @@
       <c r="U39" s="5"/>
       <c r="V39" s="25"/>
       <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="31"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2823,20 +2976,32 @@
       <c r="P40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" s="5"/>
+      <c r="Q40" s="5">
+        <v>128</v>
+      </c>
+      <c r="R40" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S40" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="V40" s="25"/>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="31"/>
+      <c r="W40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="18" t="s">
         <v>9</v>
       </c>
@@ -2883,11 +3048,13 @@
       <c r="U41" s="5"/>
       <c r="V41" s="25"/>
       <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="31"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="18" t="s">
         <v>9</v>
       </c>
@@ -2934,11 +3101,13 @@
       <c r="U42" s="5"/>
       <c r="V42" s="25"/>
       <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="32"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="18" t="s">
         <v>9</v>
       </c>
@@ -2985,19 +3154,751 @@
       <c r="U43" s="5"/>
       <c r="V43" s="25"/>
       <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="2">
+        <v>123</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="5"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="2">
+        <v>123</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>128</v>
+      </c>
+      <c r="R45" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S45" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U45" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" s="25"/>
+      <c r="W45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+    </row>
+    <row r="46" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="2">
+        <v>123</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>128</v>
+      </c>
+      <c r="R46" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S46" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V46" s="24"/>
+      <c r="W46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y46" s="5"/>
+    </row>
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="2">
+        <v>123</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>128</v>
+      </c>
+      <c r="R47" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S47" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" s="24"/>
+      <c r="W47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y47" s="5"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="2">
+        <v>123</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y48" s="5"/>
+    </row>
+    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="2">
+        <v>123</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="5"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y49" s="5"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="2">
+        <v>123</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>128</v>
+      </c>
+      <c r="R50" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S50" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U50" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V50" s="25"/>
+      <c r="W50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+    </row>
+    <row r="51" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="2">
+        <v>123</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>128</v>
+      </c>
+      <c r="R51" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S51" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U51" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V51" s="24"/>
+      <c r="W51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+    </row>
+    <row r="52" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="2">
+        <v>123</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>128</v>
+      </c>
+      <c r="R52" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S52" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U52" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V52" s="24"/>
+      <c r="W52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+    </row>
+    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="2">
+        <v>123</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>128</v>
+      </c>
+      <c r="R53" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S53" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V53" s="25"/>
+      <c r="W53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="2">
+        <v>123</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>128</v>
+      </c>
+      <c r="R54" s="5">
+        <v>9902</v>
+      </c>
+      <c r="S54" s="5">
+        <v>9902</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U54" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="V54" s="25"/>
+      <c r="W54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:B43"/>
-    <mergeCell ref="C34:C43"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="C33:C43"/>
     <mergeCell ref="C23:C31"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
@@ -3008,8 +3909,13 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -3044,31 +3950,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3205,13 +4111,13 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -3249,9 +4155,9 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -3286,10 +4192,10 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="5"/>
@@ -3325,8 +4231,8 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -3360,10 +4266,10 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="51" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="5"/>
@@ -3417,8 +4323,8 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
         <v>9</v>
@@ -3472,8 +4378,8 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
         <v>9</v>
@@ -3527,8 +4433,8 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
         <v>9</v>
@@ -3578,8 +4484,8 @@
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
         <v>9</v>
@@ -3629,8 +4535,8 @@
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
@@ -3680,8 +4586,8 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
         <v>9</v>
@@ -3731,8 +4637,8 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
@@ -3782,8 +4688,8 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
@@ -3833,8 +4739,8 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5"/>
       <c r="D17" s="18" t="s">
         <v>9</v>
@@ -3947,13 +4853,13 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -3991,9 +4897,9 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4028,10 +4934,10 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="5"/>
@@ -4067,8 +4973,8 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
@@ -4102,10 +5008,10 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="5"/>
@@ -4157,8 +5063,8 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
@@ -4210,8 +5116,8 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
         <v>9</v>
@@ -4261,8 +5167,8 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
@@ -4312,8 +5218,8 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
         <v>9</v>
@@ -4363,8 +5269,8 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
         <v>9</v>
@@ -4414,8 +5320,8 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
@@ -4465,8 +5371,8 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
         <v>9</v>
@@ -4516,8 +5422,8 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="5"/>
       <c r="D31" s="18" t="s">
         <v>9</v>
@@ -4625,12 +5531,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A6:A7"/>
@@ -4640,6 +5540,12 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4678,30 +5584,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
     </row>
     <row r="2" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -4834,13 +5740,13 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -4877,9 +5783,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -4913,10 +5819,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
@@ -4951,8 +5857,8 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -4985,10 +5891,10 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5"/>
@@ -5039,8 +5945,8 @@
       <c r="V8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
         <v>9</v>
@@ -5091,8 +5997,8 @@
       <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
         <v>9</v>
@@ -5141,8 +6047,8 @@
       <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
         <v>9</v>
@@ -5191,8 +6097,8 @@
       <c r="V11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
         <v>9</v>
@@ -5241,8 +6147,8 @@
       <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
@@ -5291,8 +6197,8 @@
       <c r="V13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
         <v>9</v>
@@ -5341,8 +6247,8 @@
       <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
@@ -5391,8 +6297,8 @@
       <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
@@ -5503,13 +6409,13 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
@@ -5546,9 +6452,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -5582,10 +6488,10 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="5"/>
@@ -5620,8 +6526,8 @@
       <c r="V20" s="17"/>
     </row>
     <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
@@ -5654,10 +6560,10 @@
       <c r="V21" s="17"/>
     </row>
     <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="5"/>
@@ -5708,8 +6614,8 @@
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5"/>
       <c r="D23" s="18" t="s">
         <v>9</v>
@@ -5760,8 +6666,8 @@
       <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
@@ -5810,8 +6716,8 @@
       <c r="V24" s="17"/>
     </row>
     <row r="25" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
         <v>9</v>
@@ -5860,8 +6766,8 @@
       <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
@@ -5910,8 +6816,8 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
         <v>9</v>
@@ -5960,8 +6866,8 @@
       <c r="V27" s="17"/>
     </row>
     <row r="28" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
         <v>9</v>
@@ -6010,8 +6916,8 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
@@ -6060,8 +6966,8 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
         <v>9</v>
@@ -6114,13 +7020,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="A1:V1"/>
@@ -6129,6 +7028,13 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -879,7 +879,7 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1064,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
@@ -1149,7 +1149,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="5" t="s">
@@ -1227,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="18" t="s">
@@ -3290,7 +3290,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
@@ -3361,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
@@ -3432,7 +3432,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
@@ -3558,7 +3558,7 @@
         <v>71</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="18" t="s">
@@ -3625,7 +3625,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="18" t="s">
@@ -3694,7 +3694,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="18" t="s">
@@ -3763,7 +3763,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="18" t="s">
@@ -3830,7 +3830,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="18" t="s">

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -545,11 +545,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,26 +578,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,31 +889,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
       <c r="X1" s="32"/>
       <c r="Y1" s="37"/>
     </row>
@@ -999,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1060,13 +1060,13 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="43"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1106,9 +1106,9 @@
       <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1145,13 +1145,13 @@
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47"/>
+      <c r="B6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="38"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1186,9 +1186,9 @@
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="48"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1223,13 +1223,13 @@
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="47"/>
+      <c r="B8" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="38"/>
       <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
@@ -1280,9 +1280,9 @@
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1337,9 +1337,9 @@
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1392,9 +1392,9 @@
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1445,9 +1445,9 @@
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="49"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1498,9 +1498,9 @@
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="49"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
@@ -1551,9 +1551,9 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="49"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1604,9 +1604,9 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1657,9 +1657,9 @@
       <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
@@ -1710,9 +1710,9 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
@@ -1828,13 +1828,13 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1874,9 +1874,9 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1913,13 +1913,13 @@
       <c r="Y20" s="5"/>
     </row>
     <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1954,9 +1954,9 @@
       <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1991,13 +1991,13 @@
       <c r="Y22" s="5"/>
     </row>
     <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
@@ -2048,9 +2048,9 @@
       <c r="Y23" s="5"/>
     </row>
     <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
@@ -2103,9 +2103,9 @@
       <c r="Y24" s="5"/>
     </row>
     <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="18" t="s">
         <v>9</v>
       </c>
@@ -2156,9 +2156,9 @@
       <c r="Y25" s="5"/>
     </row>
     <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
@@ -2209,9 +2209,9 @@
       <c r="Y26" s="5"/>
     </row>
     <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="18" t="s">
         <v>9</v>
       </c>
@@ -2262,9 +2262,9 @@
       <c r="Y27" s="5"/>
     </row>
     <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="18" t="s">
         <v>9</v>
       </c>
@@ -2315,9 +2315,9 @@
       <c r="Y28" s="5"/>
     </row>
     <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
@@ -2368,9 +2368,9 @@
       <c r="Y29" s="5"/>
     </row>
     <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
@@ -2421,9 +2421,9 @@
       <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="18" t="s">
         <v>9</v>
       </c>
@@ -2543,13 +2543,13 @@
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="18" t="s">
         <v>9</v>
       </c>
@@ -2602,9 +2602,9 @@
       <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="18" t="s">
         <v>9</v>
       </c>
@@ -2659,9 +2659,9 @@
       <c r="Y34" s="5"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="18" t="s">
         <v>9</v>
       </c>
@@ -2718,9 +2718,9 @@
       <c r="Y35" s="5"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
@@ -2777,9 +2777,9 @@
       <c r="Y36" s="5"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
@@ -2830,9 +2830,9 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="18" t="s">
         <v>9</v>
       </c>
@@ -2883,9 +2883,9 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="18" t="s">
         <v>9</v>
       </c>
@@ -2936,9 +2936,9 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2999,9 +2999,9 @@
       <c r="Y40" s="5"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="18" t="s">
         <v>9</v>
       </c>
@@ -3052,9 +3052,9 @@
       <c r="Y41" s="5"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>9</v>
       </c>
@@ -3105,9 +3105,9 @@
       <c r="Y42" s="5"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="18" t="s">
         <v>9</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="18" t="s">
@@ -3290,7 +3290,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
@@ -3361,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
@@ -3432,7 +3432,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
@@ -3495,7 +3495,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="18" t="s">
@@ -3558,7 +3558,7 @@
         <v>71</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="18" t="s">
@@ -3694,7 +3694,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="18" t="s">
@@ -3763,7 +3763,7 @@
         <v>75</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="18" t="s">
@@ -3830,7 +3830,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="18" t="s">
@@ -3894,6 +3894,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C17"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A33:A43"/>
@@ -3909,13 +3916,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -3950,31 +3950,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -4111,13 +4111,13 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -4155,9 +4155,9 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="53"/>
-      <c r="C5" s="43"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -4231,7 +4231,7 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -4266,7 +4266,7 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -4323,7 +4323,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
@@ -4433,7 +4433,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
@@ -4484,7 +4484,7 @@
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
@@ -4535,7 +4535,7 @@
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
@@ -4586,7 +4586,7 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
@@ -4637,7 +4637,7 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
@@ -4688,7 +4688,7 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
@@ -4739,7 +4739,7 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="51"/>
       <c r="C17" s="5"/>
       <c r="D17" s="18" t="s">
@@ -4853,13 +4853,13 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -4897,9 +4897,9 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -4973,7 +4973,7 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="51"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -5008,7 +5008,7 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -5063,7 +5063,7 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
@@ -5116,7 +5116,7 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
@@ -5167,7 +5167,7 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
@@ -5218,7 +5218,7 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
@@ -5269,7 +5269,7 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
@@ -5320,7 +5320,7 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
@@ -5371,7 +5371,7 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
@@ -5422,7 +5422,7 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="51"/>
       <c r="C31" s="5"/>
       <c r="D31" s="18" t="s">
@@ -5531,6 +5531,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A6:A7"/>
@@ -5540,12 +5546,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:B17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5740,13 +5740,13 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -5783,9 +5783,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="53"/>
-      <c r="C5" s="43"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -5819,7 +5819,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -5857,7 +5857,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -5891,7 +5891,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -5945,7 +5945,7 @@
       <c r="V8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
@@ -5997,7 +5997,7 @@
       <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
@@ -6047,7 +6047,7 @@
       <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
@@ -6097,7 +6097,7 @@
       <c r="V11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
@@ -6147,7 +6147,7 @@
       <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
@@ -6197,7 +6197,7 @@
       <c r="V13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
@@ -6247,7 +6247,7 @@
       <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
@@ -6297,7 +6297,7 @@
       <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
@@ -6409,13 +6409,13 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
@@ -6452,9 +6452,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="43"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="51" t="s">
@@ -6526,7 +6526,7 @@
       <c r="V20" s="17"/>
     </row>
     <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="51"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
@@ -6560,7 +6560,7 @@
       <c r="V21" s="17"/>
     </row>
     <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="51" t="s">
@@ -6614,7 +6614,7 @@
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="51"/>
       <c r="C23" s="5"/>
       <c r="D23" s="18" t="s">
@@ -6666,7 +6666,7 @@
       <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
@@ -6716,7 +6716,7 @@
       <c r="V24" s="17"/>
     </row>
     <row r="25" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
@@ -6766,7 +6766,7 @@
       <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
@@ -6816,7 +6816,7 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
@@ -6866,7 +6866,7 @@
       <c r="V27" s="17"/>
     </row>
     <row r="28" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
@@ -6916,7 +6916,7 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
@@ -6966,7 +6966,7 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
@@ -7020,6 +7020,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="A1:V1"/>
@@ -7028,13 +7035,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGupta8-adm\git\NMTS\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rjha-ADM\git\COCOM\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1064,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="4" t="s">
@@ -1149,7 +1149,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="5" t="s">
@@ -1227,7 +1227,7 @@
         <v>63</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="18" t="s">
@@ -3162,7 +3162,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="18" t="s">
@@ -3290,7 +3290,7 @@
         <v>67</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
@@ -3361,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
@@ -3432,7 +3432,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
@@ -3495,7 +3495,7 @@
         <v>70</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="18" t="s">
@@ -3625,7 +3625,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="18" t="s">

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rjha-ADM\git\COCOM\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGupta8-adm\git\COCOM\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="100">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -272,6 +272,63 @@
   </si>
   <si>
     <t>Free to Reserve</t>
+  </si>
+  <si>
+    <t>NubmerRadioButtonName</t>
+  </si>
+  <si>
+    <t>Geographical Numbers</t>
+  </si>
+  <si>
+    <t>Block Size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Location Independent Numbers</t>
+  </si>
+  <si>
+    <t>UK WIDE (Any Services)</t>
+  </si>
+  <si>
+    <t>UK WIDE (Public Services)</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>21 - Lisboa</t>
+  </si>
+  <si>
+    <t>Search by City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>01 - Araba/Álava</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>A3A</t>
+  </si>
+  <si>
+    <t>City/Town</t>
+  </si>
+  <si>
+    <t>ALDA</t>
   </si>
 </sst>
 </file>
@@ -448,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,9 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -545,27 +599,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,11 +614,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,6 +643,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,48 +933,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="24" max="24" width="47.42578125" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="25" max="27" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="36"/>
       <c r="Y1" s="37"/>
-    </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -993,13 +1055,28 @@
       <c r="Y2" s="26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1058,15 +1135,20 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+    </row>
+    <row r="4" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="48"/>
+      <c r="B4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1104,11 +1186,16 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1143,15 +1230,20 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="38"/>
+      <c r="B6" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="47"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1184,11 +1276,16 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="40"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1221,15 +1318,20 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="38"/>
+      <c r="B8" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="47"/>
       <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
@@ -1278,11 +1380,16 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1335,11 +1442,16 @@
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="39"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
@@ -1390,11 +1502,16 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="39"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="18" t="s">
         <v>9</v>
       </c>
@@ -1443,11 +1560,16 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="39"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
@@ -1496,11 +1618,16 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="39"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
@@ -1549,11 +1676,16 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="39"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1602,11 +1734,16 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="39"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1655,11 +1792,16 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="39"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
@@ -1708,11 +1850,16 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="40"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
@@ -1761,8 +1908,13 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+    </row>
+    <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1826,15 +1978,20 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+    </row>
+    <row r="19" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1872,11 +2029,16 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1911,15 +2073,20 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1952,11 +2119,16 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="40"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1989,15 +2161,20 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="18" t="s">
         <v>9</v>
       </c>
@@ -2046,11 +2223,16 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-    </row>
-    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="39"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
@@ -2101,11 +2283,16 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-    </row>
-    <row r="25" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="39"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="18" t="s">
         <v>9</v>
       </c>
@@ -2154,11 +2341,16 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-    </row>
-    <row r="26" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="39"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
@@ -2207,11 +2399,16 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-    </row>
-    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="39"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="18" t="s">
         <v>9</v>
       </c>
@@ -2260,11 +2457,16 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-    </row>
-    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="39"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="18" t="s">
         <v>9</v>
       </c>
@@ -2313,11 +2515,16 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-    </row>
-    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="39"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="18" t="s">
         <v>9</v>
       </c>
@@ -2366,11 +2573,16 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-    </row>
-    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="39"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
@@ -2419,11 +2631,16 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-    </row>
-    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="40"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+    </row>
+    <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="18" t="s">
         <v>9</v>
       </c>
@@ -2472,8 +2689,13 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-    </row>
-    <row r="32" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
@@ -2541,15 +2763,20 @@
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="18" t="s">
         <v>9</v>
       </c>
@@ -2600,11 +2827,16 @@
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="39"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="18" t="s">
         <v>9</v>
       </c>
@@ -2657,11 +2889,16 @@
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="39"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="18" t="s">
         <v>9</v>
       </c>
@@ -2716,11 +2953,16 @@
         <v>65</v>
       </c>
       <c r="Y35" s="5"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="39"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
@@ -2775,11 +3017,16 @@
         <v>66</v>
       </c>
       <c r="Y36" s="5"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="39"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="18" t="s">
         <v>9</v>
       </c>
@@ -2828,11 +3075,16 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="39"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="18" t="s">
         <v>9</v>
       </c>
@@ -2881,11 +3133,16 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="39"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="18" t="s">
         <v>9</v>
       </c>
@@ -2934,11 +3191,16 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="39"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="18" t="s">
         <v>9</v>
       </c>
@@ -2997,11 +3259,16 @@
       </c>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="39"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="18" t="s">
         <v>9</v>
       </c>
@@ -3050,11 +3317,16 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="39"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="18" t="s">
         <v>9</v>
       </c>
@@ -3103,11 +3375,16 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="40"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="18" t="s">
         <v>9</v>
       </c>
@@ -3156,13 +3433,18 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-    </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>4</v>
+      <c r="B44" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="18" t="s">
@@ -3217,12 +3499,17 @@
       </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-    </row>
-    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+    </row>
+    <row r="45" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="1"/>
@@ -3284,13 +3571,18 @@
       </c>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-    </row>
-    <row r="46" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="18" t="s">
@@ -3355,13 +3647,18 @@
         <v>65</v>
       </c>
       <c r="Y46" s="5"/>
-    </row>
-    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+    </row>
+    <row r="47" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="18" t="s">
@@ -3426,13 +3723,18 @@
         <v>66</v>
       </c>
       <c r="Y47" s="5"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="18" t="s">
@@ -3489,13 +3791,18 @@
         <v>65</v>
       </c>
       <c r="Y48" s="5"/>
-    </row>
-    <row r="49" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+    </row>
+    <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="18" t="s">
@@ -3552,8 +3859,13 @@
         <v>66</v>
       </c>
       <c r="Y49" s="5"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -3610,7 +3922,7 @@
       <c r="T50" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U50" s="34" t="s">
+      <c r="U50" s="33" t="s">
         <v>37</v>
       </c>
       <c r="V50" s="25"/>
@@ -3619,8 +3931,13 @@
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-    </row>
-    <row r="51" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+    </row>
+    <row r="51" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>72</v>
       </c>
@@ -3688,8 +4005,13 @@
       </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-    </row>
-    <row r="52" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+    </row>
+    <row r="52" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -3748,7 +4070,7 @@
       <c r="T52" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U52" s="35" t="s">
+      <c r="U52" s="34" t="s">
         <v>37</v>
       </c>
       <c r="V52" s="24"/>
@@ -3757,8 +4079,13 @@
       </c>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-    </row>
-    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+    </row>
+    <row r="53" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>75</v>
       </c>
@@ -3815,7 +4142,7 @@
       <c r="T53" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="35" t="s">
+      <c r="U53" s="34" t="s">
         <v>37</v>
       </c>
       <c r="V53" s="25"/>
@@ -3824,8 +4151,13 @@
       </c>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>77</v>
       </c>
@@ -3882,7 +4214,7 @@
       <c r="T54" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="U54" s="36" t="s">
+      <c r="U54" s="35" t="s">
         <v>37</v>
       </c>
       <c r="V54" s="25"/>
@@ -3891,16 +4223,518 @@
       </c>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="2">
+        <v>123</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="5"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="2">
+        <v>123</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" s="5"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="2">
+        <v>123</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" s="5"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="2">
+        <v>123</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="5"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="2">
+        <v>32</v>
+      </c>
+      <c r="J59" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="2">
+        <v>123</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="5"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="2">
+        <v>123</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" s="5"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="2">
+        <v>123</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U61" s="5"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD61" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+  <mergeCells count="21">
     <mergeCell ref="C8:C17"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A33:A43"/>
@@ -3916,6 +4750,12 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -3950,31 +4790,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -4111,13 +4951,13 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -4155,9 +4995,9 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="53"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -4192,7 +5032,7 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -4231,7 +5071,7 @@
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -4266,7 +5106,7 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -4323,7 +5163,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
@@ -4378,7 +5218,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
@@ -4433,7 +5273,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
@@ -4484,7 +5324,7 @@
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
@@ -4535,7 +5375,7 @@
       <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
@@ -4586,7 +5426,7 @@
       <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
@@ -4637,7 +5477,7 @@
       <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
@@ -4688,7 +5528,7 @@
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
@@ -4739,7 +5579,7 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="51"/>
       <c r="C17" s="5"/>
       <c r="D17" s="18" t="s">
@@ -4853,13 +5693,13 @@
       <c r="W18" s="5"/>
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -4897,9 +5737,9 @@
       <c r="W19" s="5"/>
     </row>
     <row r="20" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="53"/>
-      <c r="C20" s="48"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4934,7 +5774,7 @@
       <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -4973,7 +5813,7 @@
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="51"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -5008,7 +5848,7 @@
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="51" t="s">
@@ -5063,7 +5903,7 @@
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
@@ -5116,7 +5956,7 @@
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
@@ -5167,7 +6007,7 @@
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
@@ -5218,7 +6058,7 @@
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
@@ -5269,7 +6109,7 @@
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
@@ -5320,7 +6160,7 @@
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
@@ -5371,7 +6211,7 @@
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
@@ -5422,7 +6262,7 @@
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="51"/>
       <c r="C31" s="5"/>
       <c r="D31" s="18" t="s">
@@ -5531,12 +6371,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A6:A7"/>
@@ -5546,6 +6380,12 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5584,30 +6424,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -5740,13 +6580,13 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
@@ -5783,9 +6623,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="53"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -5819,7 +6659,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="51" t="s">
@@ -5857,7 +6697,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -5891,7 +6731,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="51" t="s">
@@ -5945,7 +6785,7 @@
       <c r="V8" s="17"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="51"/>
       <c r="C9" s="5"/>
       <c r="D9" s="18" t="s">
@@ -5997,7 +6837,7 @@
       <c r="V9" s="17"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="51"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
@@ -6047,7 +6887,7 @@
       <c r="V10" s="17"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="51"/>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
@@ -6097,7 +6937,7 @@
       <c r="V11" s="17"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="51"/>
       <c r="C12" s="5"/>
       <c r="D12" s="18" t="s">
@@ -6147,7 +6987,7 @@
       <c r="V12" s="17"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="51"/>
       <c r="C13" s="5"/>
       <c r="D13" s="18" t="s">
@@ -6197,7 +7037,7 @@
       <c r="V13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="51"/>
       <c r="C14" s="5"/>
       <c r="D14" s="18" t="s">
@@ -6247,7 +7087,7 @@
       <c r="V14" s="17"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="18" t="s">
@@ -6297,7 +7137,7 @@
       <c r="V15" s="17"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="18" t="s">
@@ -6409,13 +7249,13 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
@@ -6452,9 +7292,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="53"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
@@ -6488,7 +7328,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="51" t="s">
@@ -6526,7 +7366,7 @@
       <c r="V20" s="17"/>
     </row>
     <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="51"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
@@ -6560,7 +7400,7 @@
       <c r="V21" s="17"/>
     </row>
     <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="44" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="51" t="s">
@@ -6614,7 +7454,7 @@
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="51"/>
       <c r="C23" s="5"/>
       <c r="D23" s="18" t="s">
@@ -6666,7 +7506,7 @@
       <c r="V23" s="17"/>
     </row>
     <row r="24" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="18" t="s">
@@ -6716,7 +7556,7 @@
       <c r="V24" s="17"/>
     </row>
     <row r="25" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="18" t="s">
@@ -6766,7 +7606,7 @@
       <c r="V25" s="17"/>
     </row>
     <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18" t="s">
@@ -6816,7 +7656,7 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18" t="s">
@@ -6866,7 +7706,7 @@
       <c r="V27" s="17"/>
     </row>
     <row r="28" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18" t="s">
@@ -6916,7 +7756,7 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="18" t="s">
@@ -6966,7 +7806,7 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="18" t="s">
@@ -7020,13 +7860,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="A1:V1"/>
@@ -7035,6 +7868,13 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -530,7 +530,7 @@
     <t>Search_Through_transactionID/Number</t>
   </si>
   <si>
-    <t>a252fd6e-89d1-4599-87a8-9d73f04172ec</t>
+    <t>100b1c00-1b38-4e4e-8ac1-a741778b9c44</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -947,13 +947,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,46 +1357,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
       <c r="AM1" s="42"/>
     </row>
     <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
@@ -1599,13 +1608,13 @@
       <c r="AM3" s="42"/>
     </row>
     <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -1659,9 +1668,9 @@
       <c r="AM4" s="42"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -1712,13 +1721,13 @@
       <c r="AM5" s="42"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -1767,9 +1776,9 @@
       <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -1818,13 +1827,13 @@
       <c r="AM7" s="42"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="82"/>
+      <c r="B8" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -1889,9 +1898,9 @@
       <c r="AM8" s="42"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -1966,9 +1975,9 @@
       <c r="AM9" s="42"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -2041,9 +2050,9 @@
       <c r="AM10" s="42"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -2108,9 +2117,9 @@
       <c r="AM11" s="42"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -2175,9 +2184,9 @@
       <c r="AM12" s="42"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -2242,9 +2251,9 @@
       <c r="AM13" s="42"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -2309,9 +2318,9 @@
       <c r="AM14" s="42"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -2376,9 +2385,9 @@
       <c r="AM15" s="42"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -2443,9 +2452,9 @@
       <c r="AM16" s="42"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2522,7 @@
       <c r="A18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="39"/>
@@ -2593,13 +2602,13 @@
       <c r="AM18" s="42"/>
     </row>
     <row r="19" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -2653,9 +2662,9 @@
       <c r="AM19" s="42"/>
     </row>
     <row r="20" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -2706,13 +2715,13 @@
       <c r="AM20" s="42"/>
     </row>
     <row r="21" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -2761,9 +2770,9 @@
       <c r="AM21" s="42"/>
     </row>
     <row r="22" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -2812,13 +2821,13 @@
       <c r="AM22" s="42"/>
     </row>
     <row r="23" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -2883,9 +2892,9 @@
       <c r="AM23" s="42"/>
     </row>
     <row r="24" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -2958,9 +2967,9 @@
       <c r="AM24" s="42"/>
     </row>
     <row r="25" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -3025,9 +3034,9 @@
       <c r="AM25" s="42"/>
     </row>
     <row r="26" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -3092,9 +3101,9 @@
       <c r="AM26" s="42"/>
     </row>
     <row r="27" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -3159,9 +3168,9 @@
       <c r="AM27" s="42"/>
     </row>
     <row r="28" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -3226,9 +3235,9 @@
       <c r="AM28" s="42"/>
     </row>
     <row r="29" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -3293,9 +3302,9 @@
       <c r="AM29" s="42"/>
     </row>
     <row r="30" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -3360,9 +3369,9 @@
       <c r="AM30" s="42"/>
     </row>
     <row r="31" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -3510,13 +3519,13 @@
       <c r="AM32" s="42"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -3583,9 +3592,9 @@
       <c r="AM33" s="42"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -3660,9 +3669,9 @@
       <c r="AM34" s="42"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -3739,9 +3748,9 @@
       <c r="AM35" s="42"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -3816,9 +3825,9 @@
       <c r="AM36" s="42"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -3883,9 +3892,9 @@
       <c r="AM37" s="42"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -3950,9 +3959,9 @@
       <c r="AM38" s="42"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -4017,9 +4026,9 @@
       <c r="AM39" s="42"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -4094,9 +4103,9 @@
       <c r="AM40" s="42"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -4161,9 +4170,9 @@
       <c r="AM41" s="42"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -4228,9 +4237,9 @@
       <c r="AM42" s="42"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -4298,7 +4307,7 @@
       <c r="A44" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="39"/>
@@ -4379,7 +4388,7 @@
       <c r="A45" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="39"/>
@@ -4460,7 +4469,7 @@
       <c r="A46" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="39"/>
@@ -4545,7 +4554,7 @@
       <c r="A47" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="39"/>
@@ -4630,7 +4639,7 @@
       <c r="A48" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="39"/>
@@ -4713,7 +4722,7 @@
       <c r="A49" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="39"/>
@@ -4796,7 +4805,7 @@
       <c r="A50" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="39"/>
@@ -4877,7 +4886,7 @@
       <c r="A51" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="39"/>
@@ -4960,7 +4969,7 @@
       <c r="A52" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="39"/>
@@ -5043,7 +5052,7 @@
       <c r="A53" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="39"/>
@@ -5124,7 +5133,7 @@
       <c r="A54" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="77" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="39"/>
@@ -5205,7 +5214,7 @@
       <c r="A55" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="39"/>
@@ -5286,7 +5295,7 @@
       <c r="A56" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="39"/>
@@ -5367,7 +5376,7 @@
       <c r="A57" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="39"/>
@@ -5448,7 +5457,7 @@
       <c r="A58" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="79" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="39"/>
@@ -5529,8 +5538,8 @@
       <c r="A59" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="72" t="s">
-        <v>58</v>
+      <c r="B59" s="78" t="s">
+        <v>4</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="47" t="s">
@@ -5610,7 +5619,7 @@
       <c r="A60" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="39"/>
@@ -5670,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="AA60" s="42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB60" s="42" t="s">
         <v>94</v>
@@ -5691,7 +5700,7 @@
       <c r="A61" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="78" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="39"/>
@@ -5954,7 +5963,7 @@
       <c r="A64" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="76" t="s">
         <v>58</v>
       </c>
       <c r="C64" s="42"/>
@@ -6027,8 +6036,8 @@
       <c r="A65" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="75" t="s">
-        <v>4</v>
+      <c r="B65" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="47" t="s">
@@ -6082,7 +6091,7 @@
       <c r="T65" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U65" s="76" t="s">
+      <c r="U65" s="75" t="s">
         <v>37</v>
       </c>
       <c r="V65" s="45"/>
@@ -6142,11 +6151,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z65">
       <formula1>"1,10,100"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B2:B4 B6 B32:B33 B21 B23 B44:B63 B65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B2:B4 B6 B32:B33 B21 B23 B44:B65">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6171,31 +6181,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="87"/>
       <c r="X1" s="26"/>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
@@ -6447,13 +6457,13 @@
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="88"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -6498,9 +6508,9 @@
       <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
@@ -6542,13 +6552,13 @@
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -6588,9 +6598,9 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -6630,13 +6640,13 @@
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
@@ -6692,9 +6702,9 @@
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
@@ -6754,9 +6764,9 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
@@ -6814,9 +6824,9 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
@@ -6872,9 +6882,9 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
@@ -6930,9 +6940,9 @@
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="12" t="s">
         <v>9</v>
       </c>
@@ -6988,9 +6998,9 @@
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
@@ -7046,9 +7056,9 @@
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
@@ -7104,9 +7114,9 @@
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="12" t="s">
         <v>9</v>
       </c>
@@ -7162,9 +7172,9 @@
       <c r="AD17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
@@ -7290,13 +7300,13 @@
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -7341,9 +7351,9 @@
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
@@ -7385,13 +7395,13 @@
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -7431,9 +7441,9 @@
       <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
@@ -7473,13 +7483,13 @@
       <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="12" t="s">
         <v>9</v>
       </c>
@@ -7535,9 +7545,9 @@
       <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -7595,9 +7605,9 @@
       <c r="AD25" s="5"/>
     </row>
     <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="12" t="s">
         <v>9</v>
       </c>
@@ -7653,9 +7663,9 @@
       <c r="AD26" s="5"/>
     </row>
     <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
@@ -7711,9 +7721,9 @@
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="12" t="s">
         <v>9</v>
       </c>
@@ -7769,9 +7779,9 @@
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="12" t="s">
         <v>9</v>
       </c>
@@ -7827,9 +7837,9 @@
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="12" t="s">
         <v>9</v>
       </c>
@@ -7885,9 +7895,9 @@
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="12" t="s">
         <v>9</v>
       </c>
@@ -7943,9 +7953,9 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="93"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="12" t="s">
         <v>9</v>
       </c>
@@ -8075,13 +8085,13 @@
       <c r="AD33" s="5"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="12" t="s">
         <v>9</v>
       </c>
@@ -8139,9 +8149,9 @@
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="12" t="s">
         <v>9</v>
       </c>
@@ -8201,9 +8211,9 @@
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="12" t="s">
         <v>9</v>
       </c>
@@ -8265,9 +8275,9 @@
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="12" t="s">
         <v>9</v>
       </c>
@@ -8329,9 +8339,9 @@
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="12" t="s">
         <v>9</v>
       </c>
@@ -8387,9 +8397,9 @@
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="12" t="s">
         <v>9</v>
       </c>
@@ -8445,9 +8455,9 @@
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="12" t="s">
         <v>9</v>
       </c>
@@ -8503,9 +8513,9 @@
       <c r="AD40" s="5"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="12" t="s">
         <v>9</v>
       </c>
@@ -8571,9 +8581,9 @@
       <c r="AD41" s="5"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="12" t="s">
         <v>9</v>
       </c>
@@ -8629,9 +8639,9 @@
       <c r="AD42" s="5"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="12" t="s">
         <v>9</v>
       </c>
@@ -8687,9 +8697,9 @@
       <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="93"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="12" t="s">
         <v>9</v>
       </c>
@@ -9685,46 +9695,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="101"/>
     </row>
     <row r="2" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -9931,13 +9941,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -9990,9 +10000,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -10042,13 +10052,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -10096,9 +10106,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -10146,13 +10156,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -10216,9 +10226,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -10292,9 +10302,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -10366,9 +10376,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -10432,9 +10442,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -10498,9 +10508,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -10564,9 +10574,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -10630,9 +10640,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -10696,9 +10706,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -10762,9 +10772,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -10910,13 +10920,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -10969,9 +10979,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -11021,13 +11031,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -11075,9 +11085,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -11125,13 +11135,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -11195,9 +11205,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -11269,9 +11279,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -11335,9 +11345,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -11401,9 +11411,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -11467,9 +11477,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -11533,9 +11543,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -11599,9 +11609,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -11665,9 +11675,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -11813,13 +11823,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -11885,9 +11895,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -11961,9 +11971,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -12039,9 +12049,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -12115,9 +12125,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -12181,9 +12191,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -12247,9 +12257,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -12313,9 +12323,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -12389,9 +12399,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -12455,9 +12465,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -12521,9 +12531,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -14300,46 +14310,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="101"/>
     </row>
     <row r="2" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -14546,13 +14556,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -14605,9 +14615,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -14657,13 +14667,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -14711,9 +14721,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -14761,13 +14771,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -14831,9 +14841,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -14907,9 +14917,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -14981,9 +14991,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -15047,9 +15057,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -15113,9 +15123,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -15179,9 +15189,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -15245,9 +15255,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -15311,9 +15321,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -15377,9 +15387,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -15525,13 +15535,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -15584,9 +15594,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -15636,13 +15646,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -15690,9 +15700,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -15740,13 +15750,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -15810,9 +15820,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -15884,9 +15894,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -15950,9 +15960,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -16016,9 +16026,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -16082,9 +16092,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -16148,9 +16158,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -16214,9 +16224,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -16280,9 +16290,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -16428,13 +16438,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -16500,9 +16510,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -16576,9 +16586,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -16654,9 +16664,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -16730,9 +16740,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -16796,9 +16806,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -16862,9 +16872,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -16928,9 +16938,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -17004,9 +17014,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -17070,9 +17080,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -17136,9 +17146,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -18908,46 +18918,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="98"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="101"/>
     </row>
     <row r="2" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -19154,13 +19164,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -19213,9 +19223,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -19265,13 +19275,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -19319,9 +19329,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -19369,13 +19379,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -19439,9 +19449,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -19515,9 +19525,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -19589,9 +19599,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -19655,9 +19665,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -19721,9 +19731,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -19787,9 +19797,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -19853,9 +19863,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -19919,9 +19929,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -19985,9 +19995,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -20133,13 +20143,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -20192,9 +20202,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -20244,13 +20254,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -20298,9 +20308,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -20348,13 +20358,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -20418,9 +20428,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -20492,9 +20502,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -20558,9 +20568,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -20624,9 +20634,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -20690,9 +20700,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -20756,9 +20766,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -20822,9 +20832,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -20888,9 +20898,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -21036,13 +21046,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -21108,9 +21118,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -21184,9 +21194,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -21262,9 +21272,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -21338,9 +21348,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -21404,9 +21414,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -21470,9 +21480,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -21536,9 +21546,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -21612,9 +21622,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -21678,9 +21688,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -21744,9 +21754,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -23586,31 +23596,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
       <c r="X1" s="65"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
@@ -23862,13 +23872,13 @@
       <c r="AD4" s="42"/>
     </row>
     <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -23913,9 +23923,9 @@
       <c r="AD5" s="42"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="40" t="s">
         <v>34</v>
       </c>
@@ -23957,13 +23967,13 @@
       <c r="AD6" s="42"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -24003,9 +24013,9 @@
       <c r="AD7" s="42"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="42" t="s">
         <v>3</v>
       </c>
@@ -24045,13 +24055,13 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -24107,9 +24117,9 @@
       <c r="AD9" s="42"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -24169,9 +24179,9 @@
       <c r="AD10" s="42"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -24229,9 +24239,9 @@
       <c r="AD11" s="42"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -24287,9 +24297,9 @@
       <c r="AD12" s="42"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -24345,9 +24355,9 @@
       <c r="AD13" s="42"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -24403,9 +24413,9 @@
       <c r="AD14" s="42"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -24461,9 +24471,9 @@
       <c r="AD15" s="42"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -24519,9 +24529,9 @@
       <c r="AD16" s="42"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -24577,9 +24587,9 @@
       <c r="AD17" s="42"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="82"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="47" t="s">
         <v>9</v>
       </c>
@@ -24705,13 +24715,13 @@
       <c r="AD19" s="42"/>
     </row>
     <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="80"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -24756,9 +24766,9 @@
       <c r="AD20" s="42"/>
     </row>
     <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="40" t="s">
         <v>34</v>
       </c>
@@ -24800,13 +24810,13 @@
       <c r="AD21" s="42"/>
     </row>
     <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -24846,9 +24856,9 @@
       <c r="AD22" s="42"/>
     </row>
     <row r="23" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="42" t="s">
         <v>3</v>
       </c>
@@ -24888,13 +24898,13 @@
       <c r="AD23" s="42"/>
     </row>
     <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -24950,9 +24960,9 @@
       <c r="AD24" s="42"/>
     </row>
     <row r="25" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -25010,9 +25020,9 @@
       <c r="AD25" s="42"/>
     </row>
     <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -25068,9 +25078,9 @@
       <c r="AD26" s="42"/>
     </row>
     <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -25126,9 +25136,9 @@
       <c r="AD27" s="42"/>
     </row>
     <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -25184,9 +25194,9 @@
       <c r="AD28" s="42"/>
     </row>
     <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -25242,9 +25252,9 @@
       <c r="AD29" s="42"/>
     </row>
     <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -25300,9 +25310,9 @@
       <c r="AD30" s="42"/>
     </row>
     <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -25358,9 +25368,9 @@
       <c r="AD31" s="42"/>
     </row>
     <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="82"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="47" t="s">
         <v>9</v>
       </c>
@@ -25490,13 +25500,13 @@
       <c r="AD33" s="42"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -25554,9 +25564,9 @@
       <c r="AD34" s="42"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -25616,9 +25626,9 @@
       <c r="AD35" s="42"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -25680,9 +25690,9 @@
       <c r="AD36" s="42"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -25744,9 +25754,9 @@
       <c r="AD37" s="42"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -25802,9 +25812,9 @@
       <c r="AD38" s="42"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -25860,9 +25870,9 @@
       <c r="AD39" s="42"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -25918,9 +25928,9 @@
       <c r="AD40" s="42"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -25986,9 +25996,9 @@
       <c r="AD41" s="42"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -26044,9 +26054,9 @@
       <c r="AD42" s="42"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -26102,9 +26112,9 @@
       <c r="AD43" s="42"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="82"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="47" t="s">
         <v>9</v>
       </c>
@@ -27030,10 +27040,10 @@
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
     </row>
     <row r="2" spans="1:38" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -27240,13 +27250,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -27299,9 +27309,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -27351,13 +27361,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -27405,9 +27415,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -27455,13 +27465,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -27525,9 +27535,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -27601,9 +27611,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -27675,9 +27685,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -27741,9 +27751,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -27807,9 +27817,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -27873,9 +27883,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -27939,9 +27949,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -28005,9 +28015,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -28071,9 +28081,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -28219,13 +28229,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -28278,9 +28288,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -28330,13 +28340,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -28384,9 +28394,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -28434,13 +28444,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -28504,9 +28514,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -28578,9 +28588,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -28644,9 +28654,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -28710,9 +28720,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -28776,9 +28786,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -28842,9 +28852,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -28908,9 +28918,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -28974,9 +28984,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -29122,13 +29132,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -29194,9 +29204,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -29270,9 +29280,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -29348,9 +29358,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -29424,9 +29434,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -29490,9 +29500,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -29556,9 +29566,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -29622,9 +29632,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -29698,9 +29708,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -29764,9 +29774,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -29830,9 +29840,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -31660,10 +31670,10 @@
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
     </row>
     <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -31870,13 +31880,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -31929,9 +31939,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -31981,13 +31991,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -32035,9 +32045,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -32085,13 +32095,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -32155,9 +32165,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -32231,9 +32241,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -32305,9 +32315,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -32371,9 +32381,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -32437,9 +32447,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -32503,9 +32513,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -32569,9 +32579,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -32635,9 +32645,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -32701,9 +32711,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -32851,13 +32861,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="80"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -32910,9 +32920,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -32962,13 +32972,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -33016,9 +33026,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -33066,13 +33076,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -33136,9 +33146,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -33210,9 +33220,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -33276,9 +33286,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -33342,9 +33352,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -33408,9 +33418,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -33474,9 +33484,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -33540,9 +33550,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -33606,9 +33616,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -33754,13 +33764,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -33826,9 +33836,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="82"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -33902,9 +33912,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="82"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -33980,9 +33990,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="82"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -34056,9 +34066,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="82"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -34122,9 +34132,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -34188,9 +34198,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -34254,9 +34264,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="82"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -34330,9 +34340,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="82"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -34396,9 +34406,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -34462,9 +34472,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -36163,7 +36173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" s="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="104" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="AI1:AL1"/>

--- a/src/Data/NumberHosting.xlsx
+++ b/src/Data/NumberHosting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASrivastava5-adm\git\Cocom2\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGupta8-adm\git\COCO\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6313" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6242" uniqueCount="185">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -532,6 +532,69 @@
   <si>
     <t>100b1c00-1b38-4e4e-8ac1-a741778b9c44</t>
   </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) reserved</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Activated</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Quarntined</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-in (Allocated)</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-in (Activated)</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-out</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)Returned</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)All</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) reserved with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)Free  with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Activated with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Quarntined with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-in (Allocated) with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-in (Activated) with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status) Port-out with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)Returned with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)All with country Austria</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Transaction Id with country Austria) Activated</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Transaction Id with country Austria) Deactivated</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)Free to reserve</t>
+  </si>
+  <si>
+    <t>Number Enquiry (Search by Number Status)Free to Activated with Address</t>
+  </si>
 </sst>
 </file>
 
@@ -965,28 +1028,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,25 +1079,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1321,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,46 +1420,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
       <c r="AM1" s="42"/>
     </row>
     <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
@@ -1523,7 +1586,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39" t="s">
@@ -1608,13 +1671,13 @@
       <c r="AM3" s="42"/>
     </row>
     <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="83"/>
+      <c r="B4" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -1668,9 +1731,9 @@
       <c r="AM4" s="42"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -1721,13 +1784,13 @@
       <c r="AM5" s="42"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="85"/>
+      <c r="B6" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -1776,9 +1839,9 @@
       <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -1826,14 +1889,14 @@
       <c r="AL7" s="42"/>
       <c r="AM7" s="42"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="82" t="s">
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -1847,7 +1910,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="41">
@@ -1897,27 +1960,29 @@
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="47" t="s">
-        <v>9</v>
+    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>27</v>
-      </c>
+      <c r="F9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="41"/>
       <c r="I9" s="41" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J9" s="41">
         <v>123456</v>
@@ -1940,24 +2005,28 @@
       <c r="P9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42" t="s">
+      <c r="Q9" s="42">
+        <v>25</v>
+      </c>
+      <c r="R9" s="42">
+        <v>32139</v>
+      </c>
+      <c r="S9" s="42">
+        <v>32139</v>
+      </c>
+      <c r="T9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="42" t="s">
-        <v>57</v>
-      </c>
+      <c r="U9" s="73"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="42"/>
       <c r="X9" s="42"/>
       <c r="Y9" s="42"/>
       <c r="Z9" s="42">
         <v>1</v>
       </c>
       <c r="AA9" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="42" t="s">
         <v>94</v>
@@ -1974,69 +2043,54 @@
       <c r="AL9" s="42"/>
       <c r="AM9" s="42"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="47" t="s">
-        <v>9</v>
+    <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="41">
-        <v>123</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="42"/>
+      <c r="F10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42">
+        <f>COLUMN(Q9)</f>
+        <v>17</v>
+      </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
-      <c r="T10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="48"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="45" t="s">
+        <v>145</v>
+      </c>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
       <c r="Y10" s="42"/>
-      <c r="Z10" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="42">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
       <c r="AC10" s="42"/>
       <c r="AD10" s="42"/>
       <c r="AE10" s="42"/>
@@ -2049,55 +2103,45 @@
       <c r="AL10" s="42"/>
       <c r="AM10" s="42"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="47" t="s">
-        <v>9</v>
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="41">
-        <v>123</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="41" t="s">
-        <v>25</v>
-      </c>
+      <c r="F11" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
-      <c r="T11" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="42"/>
-      <c r="V11" s="48"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="45" t="s">
+        <v>145</v>
+      </c>
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
       <c r="Y11" s="42"/>
@@ -2116,53 +2160,41 @@
       <c r="AL11" s="42"/>
       <c r="AM11" s="42"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="47" t="s">
-        <v>9</v>
+    <row r="12" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="42" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="F12" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="41">
-        <v>123</v>
-      </c>
-      <c r="N12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="41" t="s">
-        <v>25</v>
-      </c>
+      <c r="J12" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="T12" s="42"/>
       <c r="U12" s="42"/>
       <c r="V12" s="48"/>
       <c r="W12" s="42"/>
@@ -2183,24 +2215,28 @@
       <c r="AL12" s="42"/>
       <c r="AM12" s="42"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="39"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>19</v>
+      <c r="F13" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="41">
@@ -2221,8 +2257,8 @@
       <c r="O13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="41" t="s">
-        <v>25</v>
+      <c r="P13" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
@@ -2250,26 +2286,32 @@
       <c r="AL13" s="42"/>
       <c r="AM13" s="42"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>19</v>
+      <c r="F14" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="J14" s="41">
         <v>123456</v>
       </c>
@@ -2288,8 +2330,8 @@
       <c r="O14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="41" t="s">
-        <v>25</v>
+      <c r="P14" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -2302,9 +2344,15 @@
       <c r="W14" s="42"/>
       <c r="X14" s="42"/>
       <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
+      <c r="Z14" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC14" s="42"/>
       <c r="AD14" s="42"/>
       <c r="AE14" s="42"/>
@@ -2317,24 +2365,28 @@
       <c r="AL14" s="42"/>
       <c r="AM14" s="42"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>19</v>
+      <c r="F15" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I15" s="42"/>
       <c r="J15" s="41">
@@ -2355,8 +2407,8 @@
       <c r="O15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="41" t="s">
-        <v>25</v>
+      <c r="P15" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
@@ -2384,24 +2436,28 @@
       <c r="AL15" s="42"/>
       <c r="AM15" s="42"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+    <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="39"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>19</v>
+      <c r="F16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="41">
@@ -2422,8 +2478,8 @@
       <c r="O16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="41" t="s">
-        <v>25</v>
+      <c r="P16" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
@@ -2451,24 +2507,28 @@
       <c r="AL16" s="42"/>
       <c r="AM16" s="42"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+    <row r="17" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="39"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>19</v>
+      <c r="F17" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="41">
@@ -2489,8 +2549,8 @@
       <c r="O17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="41" t="s">
-        <v>25</v>
+      <c r="P17" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
@@ -2520,14 +2580,14 @@
     </row>
     <row r="18" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>58</v>
+        <v>177</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
-        <v>26</v>
+      <c r="D18" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>17</v>
@@ -2538,10 +2598,10 @@
       <c r="G18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41" t="s">
-        <v>53</v>
-      </c>
+      <c r="H18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="42"/>
       <c r="J18" s="41">
         <v>123456</v>
       </c>
@@ -2560,35 +2620,23 @@
       <c r="O18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="42">
-        <v>25</v>
-      </c>
-      <c r="R18" s="42">
-        <v>32139</v>
-      </c>
-      <c r="S18" s="42">
-        <v>32139</v>
-      </c>
-      <c r="T18" s="43" t="s">
+      <c r="P18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U18" s="73"/>
-      <c r="V18" s="45"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="48"/>
       <c r="W18" s="42"/>
       <c r="X18" s="42"/>
       <c r="Y18" s="42"/>
-      <c r="Z18" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
       <c r="AD18" s="42"/>
       <c r="AE18" s="42"/>
@@ -2602,15 +2650,15 @@
       <c r="AM18" s="42"/>
     </row>
     <row r="19" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="40" t="s">
-        <v>34</v>
+      <c r="A19" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>17</v>
@@ -2621,28 +2669,39 @@
       <c r="G19" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42">
-        <f>COLUMN(Q18)</f>
-        <v>17</v>
-      </c>
+      <c r="H19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="41">
+        <v>123</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
       <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V19" s="45" t="s">
-        <v>145</v>
-      </c>
+      <c r="T19" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="42"/>
+      <c r="V19" s="48"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
       <c r="Y19" s="42"/>
@@ -2662,11 +2721,15 @@
       <c r="AM19" s="42"/>
     </row>
     <row r="20" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="40" t="s">
-        <v>34</v>
+      <c r="A20" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>17</v>
@@ -2677,25 +2740,39 @@
       <c r="G20" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
+      <c r="H20" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="41">
+        <v>123</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="45" t="s">
-        <v>145</v>
-      </c>
+      <c r="T20" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="42"/>
+      <c r="V20" s="48"/>
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
@@ -2715,15 +2792,15 @@
       <c r="AM20" s="42"/>
     </row>
     <row r="21" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="42" t="s">
-        <v>3</v>
+      <c r="A21" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>17</v>
@@ -2734,21 +2811,37 @@
       <c r="G21" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="42"/>
+      <c r="H21" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="I21" s="42"/>
-      <c r="J21" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
+      <c r="J21" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="41">
+        <v>123</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="T21" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="U21" s="42"/>
       <c r="V21" s="48"/>
       <c r="W21" s="42"/>
@@ -2770,39 +2863,71 @@
       <c r="AM21" s="42"/>
     </row>
     <row r="22" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="42" t="s">
-        <v>3</v>
+      <c r="A22" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="47" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="42"/>
+      <c r="F22" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="41">
+        <v>123456</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="41">
+        <v>123</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>128</v>
+      </c>
+      <c r="R22" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S22" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="45"/>
+      <c r="W22" s="42" t="s">
+        <v>37</v>
+      </c>
       <c r="X22" s="42"/>
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
@@ -2820,25 +2945,25 @@
       <c r="AL22" s="42"/>
       <c r="AM22" s="42"/>
     </row>
-    <row r="23" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="85"/>
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>52</v>
+      <c r="F23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>38</v>
@@ -2862,8 +2987,8 @@
       <c r="O23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="37" t="s">
-        <v>55</v>
+      <c r="P23" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
@@ -2873,7 +2998,9 @@
       </c>
       <c r="U23" s="42"/>
       <c r="V23" s="48"/>
-      <c r="W23" s="42"/>
+      <c r="W23" s="42" t="s">
+        <v>32</v>
+      </c>
       <c r="X23" s="42"/>
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
@@ -2892,26 +3019,30 @@
       <c r="AM23" s="42"/>
     </row>
     <row r="24" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="39"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>52</v>
+      <c r="F24" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>54</v>
+      <c r="I24" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="J24" s="41">
         <v>123456</v>
@@ -2931,8 +3062,8 @@
       <c r="O24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="37" t="s">
-        <v>55</v>
+      <c r="P24" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
@@ -2942,14 +3073,16 @@
       </c>
       <c r="U24" s="42"/>
       <c r="V24" s="48"/>
-      <c r="W24" s="42"/>
+      <c r="W24" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="X24" s="42"/>
       <c r="Y24" s="42"/>
       <c r="Z24" s="42">
         <v>1</v>
       </c>
       <c r="AA24" s="42">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB24" s="42" t="s">
         <v>94</v>
@@ -2967,25 +3100,31 @@
       <c r="AM24" s="42"/>
     </row>
     <row r="25" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>52</v>
+      <c r="F25" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J25" s="41">
         <v>123456</v>
       </c>
@@ -3004,8 +3143,8 @@
       <c r="O25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="37" t="s">
-        <v>55</v>
+      <c r="P25" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
@@ -3015,12 +3154,22 @@
       </c>
       <c r="U25" s="42"/>
       <c r="V25" s="48"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
+      <c r="W25" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
+      <c r="Z25" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="42">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
       <c r="AE25" s="42"/>
@@ -3034,25 +3183,31 @@
       <c r="AM25" s="42"/>
     </row>
     <row r="26" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="39"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>52</v>
+      <c r="F26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J26" s="41">
         <v>123456</v>
       </c>
@@ -3071,8 +3226,8 @@
       <c r="O26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="37" t="s">
-        <v>55</v>
+      <c r="P26" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
@@ -3082,12 +3237,20 @@
       </c>
       <c r="U26" s="42"/>
       <c r="V26" s="48"/>
-      <c r="W26" s="42"/>
+      <c r="W26" s="42" t="s">
+        <v>37</v>
+      </c>
       <c r="X26" s="42"/>
       <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
+      <c r="Z26" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="42">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC26" s="42"/>
       <c r="AD26" s="42"/>
       <c r="AE26" s="42"/>
@@ -3101,23 +3264,27 @@
       <c r="AM26" s="42"/>
     </row>
     <row r="27" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="39"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>52</v>
+      <c r="F27" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="41">
@@ -3138,8 +3305,8 @@
       <c r="O27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="37" t="s">
-        <v>55</v>
+      <c r="P27" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
@@ -3168,23 +3335,27 @@
       <c r="AM27" s="42"/>
     </row>
     <row r="28" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="39"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>52</v>
+      <c r="F28" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="41">
@@ -3205,8 +3376,8 @@
       <c r="O28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="37" t="s">
-        <v>55</v>
+      <c r="P28" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
@@ -3235,23 +3406,27 @@
       <c r="AM28" s="42"/>
     </row>
     <row r="29" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="39"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>52</v>
+      <c r="F29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="41">
@@ -3272,8 +3447,8 @@
       <c r="O29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="37" t="s">
-        <v>55</v>
+      <c r="P29" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
@@ -3302,23 +3477,27 @@
       <c r="AM29" s="42"/>
     </row>
     <row r="30" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="39"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>52</v>
+      <c r="F30" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="41">
@@ -3339,18 +3518,28 @@
       <c r="O30" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P30" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30" s="42"/>
+      <c r="P30" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>128</v>
+      </c>
+      <c r="R30" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S30" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T30" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="V30" s="48"/>
-      <c r="W30" s="42"/>
+      <c r="W30" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X30" s="42"/>
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
@@ -3369,23 +3558,27 @@
       <c r="AM30" s="42"/>
     </row>
     <row r="31" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="39"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>52</v>
+      <c r="F31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>19</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="41">
@@ -3406,8 +3599,8 @@
       <c r="O31" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P31" s="37" t="s">
-        <v>55</v>
+      <c r="P31" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -3437,10 +3630,10 @@
     </row>
     <row r="32" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="72" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="47" t="s">
@@ -3449,18 +3642,16 @@
       <c r="E32" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>20</v>
-      </c>
+      <c r="H32" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="42"/>
       <c r="J32" s="41">
         <v>123456</v>
       </c>
@@ -3482,25 +3673,15 @@
       <c r="P32" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="42">
-        <v>128</v>
-      </c>
-      <c r="R32" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S32" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T32" s="43" t="s">
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U32" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V32" s="45"/>
-      <c r="W32" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="U32" s="42"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="42"/>
       <c r="X32" s="42"/>
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
@@ -3518,14 +3699,14 @@
       <c r="AL32" s="42"/>
       <c r="AM32" s="42"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="85"/>
+    <row r="33" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="39"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3720,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="41">
@@ -3571,9 +3752,7 @@
       </c>
       <c r="U33" s="42"/>
       <c r="V33" s="48"/>
-      <c r="W33" s="42" t="s">
-        <v>32</v>
-      </c>
+      <c r="W33" s="42"/>
       <c r="X33" s="42"/>
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
@@ -3592,9 +3771,13 @@
       <c r="AM33" s="42"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="39"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -3668,10 +3851,14 @@
       <c r="AL34" s="42"/>
       <c r="AM34" s="42"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+    <row r="35" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="39"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -3685,11 +3872,9 @@
         <v>19</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I35" s="42"/>
       <c r="J35" s="41">
         <v>123456</v>
       </c>
@@ -3711,30 +3896,30 @@
       <c r="P35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" s="42"/>
+      <c r="Q35" s="42">
+        <v>128</v>
+      </c>
+      <c r="R35" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S35" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T35" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="U35" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="V35" s="48"/>
       <c r="W35" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X35" s="42" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="X35" s="42"/>
       <c r="Y35" s="42"/>
-      <c r="Z35" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="42">
-        <v>9</v>
-      </c>
-      <c r="AB35" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
       <c r="AC35" s="42"/>
       <c r="AD35" s="42"/>
       <c r="AE35" s="42"/>
@@ -3748,23 +3933,27 @@
       <c r="AM35" s="42"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="39"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="40" t="s">
-        <v>27</v>
+      <c r="H36" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I36" s="41" t="s">
         <v>20</v>
@@ -3790,28 +3979,32 @@
       <c r="P36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42" t="s">
+      <c r="Q36" s="42">
+        <v>128</v>
+      </c>
+      <c r="R36" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S36" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T36" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U36" s="42"/>
-      <c r="V36" s="48"/>
+      <c r="U36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" s="45"/>
       <c r="W36" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="X36" s="42"/>
+      <c r="X36" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="Y36" s="42"/>
-      <c r="Z36" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="42">
-        <v>9</v>
-      </c>
-      <c r="AB36" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
       <c r="AC36" s="42"/>
       <c r="AD36" s="42"/>
       <c r="AE36" s="42"/>
@@ -3824,26 +4017,32 @@
       <c r="AL36" s="42"/>
       <c r="AM36" s="42"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+    <row r="37" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="39"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="42"/>
+      <c r="H37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J37" s="41">
         <v>123456</v>
       </c>
@@ -3865,16 +4064,28 @@
       <c r="P37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42" t="s">
+      <c r="Q37" s="42">
+        <v>128</v>
+      </c>
+      <c r="R37" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S37" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T37" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="42"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
+      <c r="U37" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="45"/>
+      <c r="W37" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
@@ -3892,9 +4103,13 @@
       <c r="AM37" s="42"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="39"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -3908,9 +4123,11 @@
         <v>19</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J38" s="41">
         <v>123456</v>
       </c>
@@ -3940,12 +4157,22 @@
       </c>
       <c r="U38" s="42"/>
       <c r="V38" s="48"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
+      <c r="W38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X38" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
+      <c r="Z38" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="42">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC38" s="42"/>
       <c r="AD38" s="42"/>
       <c r="AE38" s="42"/>
@@ -3959,9 +4186,13 @@
       <c r="AM38" s="42"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="39"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -3975,9 +4206,11 @@
         <v>19</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J39" s="41">
         <v>123456</v>
       </c>
@@ -4007,12 +4240,22 @@
       </c>
       <c r="U39" s="42"/>
       <c r="V39" s="48"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
+      <c r="W39" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
+      <c r="Z39" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="42">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC39" s="42"/>
       <c r="AD39" s="42"/>
       <c r="AE39" s="42"/>
@@ -4026,9 +4269,13 @@
       <c r="AM39" s="42"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="39"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -4103,25 +4350,31 @@
       <c r="AM40" s="42"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="39"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="42"/>
+      <c r="H41" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J41" s="41">
         <v>123456</v>
       </c>
@@ -4143,15 +4396,25 @@
       <c r="P41" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U41" s="42"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="42"/>
+      <c r="Q41" s="42">
+        <v>128</v>
+      </c>
+      <c r="R41" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S41" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T41" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" s="45"/>
+      <c r="W41" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="X41" s="42"/>
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
@@ -4169,26 +4432,32 @@
       <c r="AL41" s="42"/>
       <c r="AM41" s="42"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+    <row r="42" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="39"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="42"/>
+      <c r="H42" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J42" s="41">
         <v>123456</v>
       </c>
@@ -4210,15 +4479,25 @@
       <c r="P42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="42"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="42"/>
+      <c r="Q42" s="42">
+        <v>128</v>
+      </c>
+      <c r="R42" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S42" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T42" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" s="45"/>
+      <c r="W42" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="X42" s="42"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
@@ -4236,10 +4515,14 @@
       <c r="AL42" s="42"/>
       <c r="AM42" s="42"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+    <row r="43" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="39"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -4253,7 +4536,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="41">
@@ -4277,15 +4560,25 @@
       <c r="P43" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U43" s="42"/>
+      <c r="Q43" s="42">
+        <v>128</v>
+      </c>
+      <c r="R43" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S43" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T43" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="U43" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="V43" s="48"/>
-      <c r="W43" s="42"/>
+      <c r="W43" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="X43" s="42"/>
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
@@ -4305,10 +4598,10 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="79" t="s">
-        <v>58</v>
+        <v>135</v>
+      </c>
+      <c r="B44" s="77" t="s">
+        <v>4</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="47" t="s">
@@ -4324,11 +4617,9 @@
         <v>19</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>20</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I44" s="42"/>
       <c r="J44" s="41">
         <v>123456</v>
       </c>
@@ -4350,28 +4641,30 @@
       <c r="P44" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U44" s="42"/>
+      <c r="Q44" s="42">
+        <v>128</v>
+      </c>
+      <c r="R44" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S44" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T44" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="V44" s="48"/>
       <c r="W44" s="42" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="X44" s="42"/>
       <c r="Y44" s="42"/>
-      <c r="Z44" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="42">
-        <v>9</v>
-      </c>
-      <c r="AB44" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
       <c r="AC44" s="42"/>
       <c r="AD44" s="42"/>
       <c r="AE44" s="42"/>
@@ -4384,12 +4677,12 @@
       <c r="AL44" s="42"/>
       <c r="AM44" s="42"/>
     </row>
-    <row r="45" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="47" t="s">
@@ -4405,9 +4698,11 @@
         <v>19</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="J45" s="41">
         <v>123456</v>
       </c>
@@ -4429,48 +4724,46 @@
       <c r="P45" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="42">
-        <v>128</v>
-      </c>
-      <c r="R45" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S45" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T45" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="U45" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" s="42"/>
       <c r="V45" s="48"/>
       <c r="W45" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X45" s="42"/>
       <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
+      <c r="Z45" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC45" s="42"/>
       <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
       <c r="AJ45" s="42"/>
       <c r="AK45" s="42"/>
       <c r="AL45" s="42"/>
       <c r="AM45" s="42"/>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="47" t="s">
@@ -4479,14 +4772,14 @@
       <c r="E46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="41" t="s">
-        <v>38</v>
+      <c r="H46" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="I46" s="41" t="s">
         <v>20</v>
@@ -4512,39 +4805,35 @@
       <c r="P46" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q46" s="42">
-        <v>128</v>
-      </c>
-      <c r="R46" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S46" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T46" s="43" t="s">
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U46" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V46" s="45"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="48"/>
       <c r="W46" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X46" s="42" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X46" s="42"/>
       <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
+      <c r="Z46" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="42" t="s">
+        <v>95</v>
+      </c>
       <c r="AC46" s="42"/>
       <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
       <c r="AJ46" s="42"/>
       <c r="AK46" s="42"/>
       <c r="AL46" s="42"/>
@@ -4552,10 +4841,10 @@
     </row>
     <row r="47" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="47" t="s">
@@ -4564,14 +4853,14 @@
       <c r="E47" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="41" t="s">
-        <v>38</v>
+      <c r="H47" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="I47" s="41" t="s">
         <v>20</v>
@@ -4597,50 +4886,46 @@
       <c r="P47" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q47" s="42">
-        <v>128</v>
-      </c>
-      <c r="R47" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S47" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T47" s="43" t="s">
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="U47" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V47" s="45"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="48"/>
       <c r="W47" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X47" s="42" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X47" s="42"/>
       <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
+      <c r="Z47" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="AC47" s="42"/>
       <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
       <c r="AJ47" s="42"/>
       <c r="AK47" s="42"/>
       <c r="AL47" s="42"/>
       <c r="AM47" s="42"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="47" t="s">
@@ -4691,39 +4976,37 @@
       <c r="U48" s="42"/>
       <c r="V48" s="48"/>
       <c r="W48" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X48" s="42" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X48" s="42"/>
       <c r="Y48" s="42"/>
       <c r="Z48" s="42">
         <v>1</v>
       </c>
       <c r="AA48" s="42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB48" s="42" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC48" s="42"/>
       <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
       <c r="AJ48" s="42"/>
       <c r="AK48" s="42"/>
       <c r="AL48" s="42"/>
       <c r="AM48" s="42"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="79" t="s">
-        <v>58</v>
+        <v>136</v>
+      </c>
+      <c r="B49" s="78" t="s">
+        <v>4</v>
       </c>
       <c r="C49" s="39"/>
       <c r="D49" s="47" t="s">
@@ -4733,16 +5016,16 @@
         <v>17</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="H49" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="41" t="s">
-        <v>20</v>
+      <c r="I49" s="41">
+        <v>32</v>
       </c>
       <c r="J49" s="41">
         <v>123456</v>
@@ -4774,39 +5057,37 @@
       <c r="U49" s="42"/>
       <c r="V49" s="48"/>
       <c r="W49" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X49" s="42" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X49" s="42"/>
       <c r="Y49" s="42"/>
       <c r="Z49" s="42">
         <v>1</v>
       </c>
       <c r="AA49" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB49" s="42" t="s">
         <v>94</v>
       </c>
       <c r="AC49" s="42"/>
       <c r="AD49" s="42"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="41"/>
+      <c r="AG49" s="41"/>
+      <c r="AH49" s="41"/>
+      <c r="AI49" s="41"/>
       <c r="AJ49" s="42"/>
       <c r="AK49" s="42"/>
       <c r="AL49" s="42"/>
       <c r="AM49" s="42"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="79" t="s">
-        <v>58</v>
+        <v>138</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>4</v>
       </c>
       <c r="C50" s="39"/>
       <c r="D50" s="47" t="s">
@@ -4816,15 +5097,17 @@
         <v>17</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I50" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>148</v>
+      </c>
       <c r="J50" s="41">
         <v>123456</v>
       </c>
@@ -4846,48 +5129,46 @@
       <c r="P50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q50" s="42">
-        <v>128</v>
-      </c>
-      <c r="R50" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S50" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T50" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="U50" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="42"/>
       <c r="V50" s="48"/>
       <c r="W50" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X50" s="42"/>
       <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
+      <c r="Z50" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC50" s="42"/>
       <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-      <c r="AH50" s="42"/>
-      <c r="AI50" s="42"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="41"/>
+      <c r="AI50" s="41"/>
       <c r="AJ50" s="42"/>
       <c r="AK50" s="42"/>
       <c r="AL50" s="42"/>
       <c r="AM50" s="42"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="47" t="s">
@@ -4896,17 +5177,15 @@
       <c r="E51" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>20</v>
+      <c r="F51" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="J51" s="41">
         <v>123456</v>
@@ -4923,53 +5202,53 @@
       <c r="N51" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="41" t="s">
-        <v>23</v>
-      </c>
+      <c r="O51" s="41"/>
       <c r="P51" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q51" s="42">
-        <v>128</v>
-      </c>
-      <c r="R51" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S51" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T51" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="U51" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="V51" s="45"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="42"/>
+      <c r="V51" s="48"/>
       <c r="W51" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X51" s="42"/>
       <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="42"/>
+      <c r="Z51" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC51" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD51" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="41"/>
+      <c r="AG51" s="41"/>
+      <c r="AH51" s="41"/>
+      <c r="AI51" s="41"/>
       <c r="AJ51" s="42"/>
       <c r="AK51" s="42"/>
       <c r="AL51" s="42"/>
       <c r="AM51" s="42"/>
     </row>
-    <row r="52" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="72" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="39"/>
@@ -4979,16 +5258,16 @@
       <c r="E52" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="41" t="s">
+      <c r="H52" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="50" t="s">
         <v>20</v>
       </c>
       <c r="J52" s="41">
@@ -5012,131 +5291,149 @@
       <c r="P52" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q52" s="42">
-        <v>128</v>
-      </c>
-      <c r="R52" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S52" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T52" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="U52" s="73" t="s">
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" s="42"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V52" s="45"/>
-      <c r="W52" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
+      <c r="X52" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y52" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z52" s="42">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="42">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="AC52" s="42"/>
       <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="42"/>
-      <c r="AI52" s="42"/>
+      <c r="AE52" s="46">
+        <v>43754</v>
+      </c>
+      <c r="AF52" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG52" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH52" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI52" s="47" t="s">
+        <v>87</v>
+      </c>
       <c r="AJ52" s="42"/>
       <c r="AK52" s="42"/>
       <c r="AL52" s="42"/>
       <c r="AM52" s="42"/>
     </row>
-    <row r="53" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="79" t="s">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="40" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M53" s="41">
-        <v>123</v>
-      </c>
-      <c r="N53" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q53" s="42">
-        <v>128</v>
-      </c>
-      <c r="R53" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S53" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T53" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="U53" s="73" t="s">
+      <c r="H53" s="53"/>
+      <c r="I53" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="53">
+        <v>123456</v>
+      </c>
+      <c r="K53" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="53">
+        <v>123</v>
+      </c>
+      <c r="N53" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q53" s="52">
+        <v>996</v>
+      </c>
+      <c r="R53" s="52">
+        <v>8800</v>
+      </c>
+      <c r="S53" s="52">
+        <v>8800</v>
+      </c>
+      <c r="T53" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="U53" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="V53" s="48"/>
-      <c r="W53" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="42"/>
-      <c r="AJ53" s="42"/>
-      <c r="AK53" s="42"/>
-      <c r="AL53" s="42"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52">
+        <v>4341146564</v>
+      </c>
+      <c r="AK53" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL53" s="57" t="s">
+        <v>115</v>
+      </c>
       <c r="AM53" s="42"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="39"/>
+      <c r="A54" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="42"/>
       <c r="D54" s="47" t="s">
         <v>9</v>
       </c>
@@ -5150,7 +5447,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="41">
@@ -5174,25 +5471,15 @@
       <c r="P54" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q54" s="42">
-        <v>128</v>
-      </c>
-      <c r="R54" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S54" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T54" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="U54" s="73" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="42"/>
       <c r="V54" s="48"/>
-      <c r="W54" s="42" t="s">
-        <v>76</v>
-      </c>
+      <c r="W54" s="42"/>
       <c r="X54" s="42"/>
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
@@ -5208,14 +5495,16 @@
       <c r="AJ54" s="42"/>
       <c r="AK54" s="42"/>
       <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
+      <c r="AM54" s="42" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="79" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+      <c r="B55" s="74" t="s">
+        <v>4</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="47" t="s">
@@ -5224,14 +5513,14 @@
       <c r="E55" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="40" t="s">
-        <v>27</v>
+      <c r="H55" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="I55" s="41" t="s">
         <v>20</v>
@@ -5257,885 +5546,48 @@
       <c r="P55" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42" t="s">
+      <c r="Q55" s="42">
+        <v>128</v>
+      </c>
+      <c r="R55" s="42">
+        <v>9902</v>
+      </c>
+      <c r="S55" s="42">
+        <v>9902</v>
+      </c>
+      <c r="T55" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U55" s="42"/>
-      <c r="V55" s="48"/>
+      <c r="U55" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="V55" s="45"/>
       <c r="W55" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X55" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="X55" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="Y55" s="42"/>
-      <c r="Z55" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB55" s="42" t="s">
-        <v>94</v>
-      </c>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
       <c r="AC55" s="42"/>
       <c r="AD55" s="42"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
       <c r="AJ55" s="42"/>
       <c r="AK55" s="42"/>
       <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-    </row>
-    <row r="56" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" s="41">
-        <v>123</v>
-      </c>
-      <c r="N56" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O56" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P56" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U56" s="42"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="42"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-    </row>
-    <row r="57" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57" s="41">
-        <v>123</v>
-      </c>
-      <c r="N57" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P57" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U57" s="42"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="42"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="41"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="41"/>
-      <c r="AJ57" s="42"/>
-      <c r="AK57" s="42"/>
-      <c r="AL57" s="42"/>
-      <c r="AM57" s="42"/>
-    </row>
-    <row r="58" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M58" s="41">
-        <v>123</v>
-      </c>
-      <c r="N58" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O58" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U58" s="42"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-    </row>
-    <row r="59" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="41">
-        <v>32</v>
-      </c>
-      <c r="J59" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K59" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M59" s="41">
-        <v>123</v>
-      </c>
-      <c r="N59" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P59" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U59" s="42"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="41"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-    </row>
-    <row r="60" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="J60" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="41">
-        <v>123</v>
-      </c>
-      <c r="N60" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P60" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U60" s="42"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-    </row>
-    <row r="61" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J61" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M61" s="41">
-        <v>123</v>
-      </c>
-      <c r="N61" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U61" s="42"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC61" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD61" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M62" s="41">
-        <v>123</v>
-      </c>
-      <c r="N62" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P62" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U62" s="42"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X62" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y62" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z62" s="42">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="42">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="46">
-        <v>43754</v>
-      </c>
-      <c r="AF62" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG62" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH62" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI62" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ62" s="42"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="53">
-        <v>123456</v>
-      </c>
-      <c r="K63" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" s="53">
-        <v>123</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="P63" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q63" s="52">
-        <v>996</v>
-      </c>
-      <c r="R63" s="52">
-        <v>8800</v>
-      </c>
-      <c r="S63" s="52">
-        <v>8800</v>
-      </c>
-      <c r="T63" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="U63" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="V63" s="56"/>
-      <c r="W63" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="52"/>
-      <c r="AG63" s="52"/>
-      <c r="AH63" s="52"/>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52">
-        <v>4341146564</v>
-      </c>
-      <c r="AK63" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL63" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM63" s="42"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="42"/>
-      <c r="J64" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M64" s="41">
-        <v>123</v>
-      </c>
-      <c r="N64" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P64" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U64" s="42"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="42"/>
-      <c r="AE64" s="42"/>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="42"/>
-      <c r="AH64" s="42"/>
-      <c r="AI64" s="42"/>
-      <c r="AJ64" s="42"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="41">
-        <v>123456</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M65" s="41">
-        <v>123</v>
-      </c>
-      <c r="N65" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P65" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q65" s="42">
-        <v>128</v>
-      </c>
-      <c r="R65" s="42">
-        <v>9902</v>
-      </c>
-      <c r="S65" s="42">
-        <v>9902</v>
-      </c>
-      <c r="T65" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U65" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="V65" s="45"/>
-      <c r="W65" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="X65" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
-      <c r="AB65" s="42"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="42"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
-      <c r="AG65" s="42"/>
-      <c r="AH65" s="42"/>
-      <c r="AI65" s="42"/>
-      <c r="AJ65" s="42"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
-      <c r="AM65" s="42" t="s">
+      <c r="AM55" s="42" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -6145,14 +5597,14 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10 B2:B4 B6 B22:B23 B34:B55 B12:B13">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA55">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z55">
       <formula1>"1,10,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B2:B4 B6 B32:B33 B21 B23 B44:B65">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6181,31 +5633,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="87"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
       <c r="X1" s="26"/>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
@@ -6457,13 +5909,13 @@
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
@@ -6508,9 +5960,9 @@
       <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
@@ -6552,13 +6004,13 @@
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
@@ -6598,9 +6050,9 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
@@ -6640,13 +6092,13 @@
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
@@ -6702,9 +6154,9 @@
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
@@ -6764,9 +6216,9 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
@@ -6824,9 +6276,9 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
@@ -6882,9 +6334,9 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
@@ -6940,9 +6392,9 @@
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="12" t="s">
         <v>9</v>
       </c>
@@ -6998,9 +6450,9 @@
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
@@ -7056,9 +6508,9 @@
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
@@ -7114,9 +6566,9 @@
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="12" t="s">
         <v>9</v>
       </c>
@@ -7172,9 +6624,9 @@
       <c r="AD17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="96"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
@@ -7300,13 +6752,13 @@
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
@@ -7351,9 +6803,9 @@
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
@@ -7395,13 +6847,13 @@
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
@@ -7441,9 +6893,9 @@
       <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="96"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="5" t="s">
         <v>3</v>
       </c>
@@ -7483,13 +6935,13 @@
       <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="12" t="s">
         <v>9</v>
       </c>
@@ -7545,9 +6997,9 @@
       <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
@@ -7605,9 +7057,9 @@
       <c r="AD25" s="5"/>
     </row>
     <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="12" t="s">
         <v>9</v>
       </c>
@@ -7663,9 +7115,9 @@
       <c r="AD26" s="5"/>
     </row>
     <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
@@ -7721,9 +7173,9 @@
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="12" t="s">
         <v>9</v>
       </c>
@@ -7779,9 +7231,9 @@
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="12" t="s">
         <v>9</v>
       </c>
@@ -7837,9 +7289,9 @@
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="12" t="s">
         <v>9</v>
       </c>
@@ -7895,9 +7347,9 @@
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="12" t="s">
         <v>9</v>
       </c>
@@ -7953,9 +7405,9 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="12" t="s">
         <v>9</v>
       </c>
@@ -8085,13 +7537,13 @@
       <c r="AD33" s="5"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="95"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="12" t="s">
         <v>9</v>
       </c>
@@ -8149,9 +7601,9 @@
       <c r="AD34" s="5"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="12" t="s">
         <v>9</v>
       </c>
@@ -8211,9 +7663,9 @@
       <c r="AD35" s="5"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="12" t="s">
         <v>9</v>
       </c>
@@ -8275,9 +7727,9 @@
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="12" t="s">
         <v>9</v>
       </c>
@@ -8339,9 +7791,9 @@
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="12" t="s">
         <v>9</v>
       </c>
@@ -8397,9 +7849,9 @@
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="12" t="s">
         <v>9</v>
       </c>
@@ -8455,9 +7907,9 @@
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="92"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="12" t="s">
         <v>9</v>
       </c>
@@ -8513,9 +7965,9 @@
       <c r="AD40" s="5"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="98"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="12" t="s">
         <v>9</v>
       </c>
@@ -8581,9 +8033,9 @@
       <c r="AD41" s="5"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="12" t="s">
         <v>9</v>
       </c>
@@ -8639,9 +8091,9 @@
       <c r="AD42" s="5"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="12" t="s">
         <v>9</v>
       </c>
@@ -8697,9 +8149,9 @@
       <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="96"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="12" t="s">
         <v>9</v>
       </c>
@@ -9626,6 +9078,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="B34:B44"/>
     <mergeCell ref="C34:C44"/>
@@ -9635,19 +9100,6 @@
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="C9:C18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B56">
@@ -9941,13 +9393,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -10000,9 +9452,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -10052,13 +9504,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -10106,9 +9558,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -10156,13 +9608,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -10226,9 +9678,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -10302,9 +9754,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -10376,9 +9828,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -10442,9 +9894,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -10508,9 +9960,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -10574,9 +10026,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -10640,9 +10092,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -10706,9 +10158,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -10772,9 +10224,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -10920,13 +10372,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -10979,9 +10431,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -11031,13 +10483,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -11085,9 +10537,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -11135,13 +10587,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -11205,9 +10657,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -11279,9 +10731,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -11345,9 +10797,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -11411,9 +10863,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -11477,9 +10929,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -11543,9 +10995,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -11609,9 +11061,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -11675,9 +11127,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -11823,13 +11275,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -11895,9 +11347,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -11971,9 +11423,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -12049,9 +11501,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -12125,9 +11577,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -12191,9 +11643,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -12257,9 +11709,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -12323,9 +11775,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -12399,9 +11851,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -12465,9 +11917,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -12531,9 +11983,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -14237,6 +13689,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A33:A43"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
@@ -14246,19 +13711,6 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B44:B63 B6 B32:B33 B21 B23 B2:B4">
@@ -14556,13 +14008,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -14615,9 +14067,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -14667,13 +14119,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -14721,9 +14173,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -14771,13 +14223,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -14841,9 +14293,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -14917,9 +14369,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -14991,9 +14443,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -15057,9 +14509,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -15123,9 +14575,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -15189,9 +14641,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -15255,9 +14707,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -15321,9 +14773,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -15387,9 +14839,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -15535,13 +14987,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -15594,9 +15046,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -15646,13 +15098,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -15700,9 +15152,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -15750,13 +15202,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -15820,9 +15272,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -15894,9 +15346,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -15960,9 +15412,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -16026,9 +15478,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -16092,9 +15544,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -16158,9 +15610,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -16224,9 +15676,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -16290,9 +15742,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -16438,13 +15890,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -16510,9 +15962,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -16586,9 +16038,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -16664,9 +16116,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -16740,9 +16192,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -16806,9 +16258,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -16872,9 +16324,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -16938,9 +16390,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -17014,9 +16466,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -17080,9 +16532,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -17146,9 +16598,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -18849,6 +18301,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A33:A43"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
@@ -18858,19 +18323,6 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA63">
@@ -19164,13 +18616,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -19223,9 +18675,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -19275,13 +18727,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -19329,9 +18781,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -19379,13 +18831,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -19449,9 +18901,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -19525,9 +18977,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -19599,9 +19051,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -19665,9 +19117,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -19731,9 +19183,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -19797,9 +19249,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -19863,9 +19315,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -19929,9 +19381,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -19995,9 +19447,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -20143,13 +19595,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -20202,9 +19654,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -20254,13 +19706,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -20308,9 +19760,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -20358,13 +19810,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -20428,9 +19880,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -20502,9 +19954,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -20568,9 +20020,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -20634,9 +20086,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -20700,9 +20152,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -20766,9 +20218,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -20832,9 +20284,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -20898,9 +20350,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -21046,13 +20498,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -21118,9 +20570,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -21194,9 +20646,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -21272,9 +20724,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -21348,9 +20800,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -21414,9 +20866,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -21480,9 +20932,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -21546,9 +20998,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -21622,9 +21074,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -21688,9 +21140,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -21754,9 +21206,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -23524,6 +22976,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A33:A43"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
@@ -23533,19 +22998,6 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA63">
@@ -23596,31 +23048,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
       <c r="X1" s="65"/>
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
@@ -23872,13 +23324,13 @@
       <c r="AD4" s="42"/>
     </row>
     <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -23923,9 +23375,9 @@
       <c r="AD5" s="42"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="102"/>
-      <c r="C6" s="83"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="40" t="s">
         <v>34</v>
       </c>
@@ -23967,13 +23419,13 @@
       <c r="AD6" s="42"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -24013,9 +23465,9 @@
       <c r="AD7" s="42"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="42" t="s">
         <v>3</v>
       </c>
@@ -24055,13 +23507,13 @@
       <c r="AD8" s="42"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -24117,9 +23569,9 @@
       <c r="AD9" s="42"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -24179,9 +23631,9 @@
       <c r="AD10" s="42"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -24239,9 +23691,9 @@
       <c r="AD11" s="42"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -24297,9 +23749,9 @@
       <c r="AD12" s="42"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -24355,9 +23807,9 @@
       <c r="AD13" s="42"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -24413,9 +23865,9 @@
       <c r="AD14" s="42"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -24471,9 +23923,9 @@
       <c r="AD15" s="42"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -24529,9 +23981,9 @@
       <c r="AD16" s="42"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -24587,9 +24039,9 @@
       <c r="AD17" s="42"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="47" t="s">
         <v>9</v>
       </c>
@@ -24715,13 +24167,13 @@
       <c r="AD19" s="42"/>
     </row>
     <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -24766,9 +24218,9 @@
       <c r="AD20" s="42"/>
     </row>
     <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="102"/>
-      <c r="C21" s="83"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="40" t="s">
         <v>34</v>
       </c>
@@ -24810,13 +24262,13 @@
       <c r="AD21" s="42"/>
     </row>
     <row r="22" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="85"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -24856,9 +24308,9 @@
       <c r="AD22" s="42"/>
     </row>
     <row r="23" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="42" t="s">
         <v>3</v>
       </c>
@@ -24898,13 +24350,13 @@
       <c r="AD23" s="42"/>
     </row>
     <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="85"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -24960,9 +24412,9 @@
       <c r="AD24" s="42"/>
     </row>
     <row r="25" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -25020,9 +24472,9 @@
       <c r="AD25" s="42"/>
     </row>
     <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -25078,9 +24530,9 @@
       <c r="AD26" s="42"/>
     </row>
     <row r="27" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -25136,9 +24588,9 @@
       <c r="AD27" s="42"/>
     </row>
     <row r="28" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -25194,9 +24646,9 @@
       <c r="AD28" s="42"/>
     </row>
     <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -25252,9 +24704,9 @@
       <c r="AD29" s="42"/>
     </row>
     <row r="30" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -25310,9 +24762,9 @@
       <c r="AD30" s="42"/>
     </row>
     <row r="31" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -25368,9 +24820,9 @@
       <c r="AD31" s="42"/>
     </row>
     <row r="32" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="47" t="s">
         <v>9</v>
       </c>
@@ -25500,13 +24952,13 @@
       <c r="AD33" s="42"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="85"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -25564,9 +25016,9 @@
       <c r="AD34" s="42"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -25626,9 +25078,9 @@
       <c r="AD35" s="42"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -25690,9 +25142,9 @@
       <c r="AD36" s="42"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -25754,9 +25206,9 @@
       <c r="AD37" s="42"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -25812,9 +25264,9 @@
       <c r="AD38" s="42"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -25870,9 +25322,9 @@
       <c r="AD39" s="42"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -25928,9 +25380,9 @@
       <c r="AD40" s="42"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -25996,9 +25448,9 @@
       <c r="AD41" s="42"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -26054,9 +25506,9 @@
       <c r="AD42" s="42"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -26112,9 +25564,9 @@
       <c r="AD43" s="42"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="47" t="s">
         <v>9</v>
       </c>
@@ -26961,6 +26413,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C9:C18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A34:A44"/>
     <mergeCell ref="B34:B44"/>
     <mergeCell ref="C34:C44"/>
@@ -26970,19 +26435,6 @@
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="C9:C18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B55">
@@ -27250,13 +26702,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -27309,9 +26761,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -27361,13 +26813,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -27415,9 +26867,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -27465,13 +26917,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -27535,9 +26987,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -27611,9 +27063,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -27685,9 +27137,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -27751,9 +27203,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -27817,9 +27269,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -27883,9 +27335,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -27949,9 +27401,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -28015,9 +27467,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -28081,9 +27533,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -28229,13 +27681,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -28288,9 +27740,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -28340,13 +27792,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -28394,9 +27846,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -28444,13 +27896,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -28514,9 +27966,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -28588,9 +28040,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -28654,9 +28106,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -28720,9 +28172,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -28786,9 +28238,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -28852,9 +28304,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -28918,9 +28370,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -28984,9 +28436,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -29132,13 +28584,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -29204,9 +28656,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -29280,9 +28732,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -29358,9 +28810,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -29434,9 +28886,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -29500,9 +28952,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -29566,9 +29018,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -29632,9 +29084,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -29708,9 +29160,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -29774,9 +29226,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -29840,9 +29292,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -31543,6 +30995,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A33:A43"/>
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="C33:C43"/>
@@ -31552,19 +31017,6 @@
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="C23:C31"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B1:B4 B6 B32:B33 B21 B23 B44:B63">
@@ -31880,13 +31332,13 @@
       <c r="AL3" s="42"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="40" t="s">
         <v>34</v>
       </c>
@@ -31939,9 +31391,9 @@
       <c r="AL4" s="42"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="40" t="s">
         <v>34</v>
       </c>
@@ -31991,13 +31443,13 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="42" t="s">
         <v>3</v>
       </c>
@@ -32045,9 +31497,9 @@
       <c r="AL6" s="42"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
@@ -32095,13 +31547,13 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
@@ -32165,9 +31617,9 @@
       <c r="AL8" s="42"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
@@ -32241,9 +31693,9 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="47" t="s">
         <v>9</v>
       </c>
@@ -32315,9 +31767,9 @@
       <c r="AL10" s="42"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="47" t="s">
         <v>9</v>
       </c>
@@ -32381,9 +31833,9 @@
       <c r="AL11" s="42"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="47" t="s">
         <v>9</v>
       </c>
@@ -32447,9 +31899,9 @@
       <c r="AL12" s="42"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="47" t="s">
         <v>9</v>
       </c>
@@ -32513,9 +31965,9 @@
       <c r="AL13" s="42"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="47" t="s">
         <v>9</v>
       </c>
@@ -32579,9 +32031,9 @@
       <c r="AL14" s="42"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="47" t="s">
         <v>9</v>
       </c>
@@ -32645,9 +32097,9 @@
       <c r="AL15" s="42"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
@@ -32711,9 +32163,9 @@
       <c r="AL16" s="42"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
@@ -32861,13 +32313,13 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
@@ -32920,9 +32372,9 @@
       <c r="AL19" s="42"/>
     </row>
     <row r="20" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
@@ -32972,13 +32424,13 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="85"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="42" t="s">
         <v>3</v>
       </c>
@@ -33026,9 +32478,9 @@
       <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="42" t="s">
         <v>3</v>
       </c>
@@ -33076,13 +32528,13 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="85"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
@@ -33146,9 +32598,9 @@
       <c r="AL23" s="42"/>
     </row>
     <row r="24" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
@@ -33220,9 +32672,9 @@
       <c r="AL24" s="42"/>
     </row>
     <row r="25" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
@@ -33286,9 +32738,9 @@
       <c r="AL25" s="42"/>
     </row>
     <row r="26" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
@@ -33352,9 +32804,9 @@
       <c r="AL26" s="42"/>
     </row>
     <row r="27" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="47" t="s">
         <v>9</v>
       </c>
@@ -33418,9 +32870,9 @@
       <c r="AL27" s="42"/>
     </row>
     <row r="28" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="47" t="s">
         <v>9</v>
       </c>
@@ -33484,9 +32936,9 @@
       <c r="AL28" s="42"/>
     </row>
     <row r="29" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="47" t="s">
         <v>9</v>
       </c>
@@ -33550,9 +33002,9 @@
       <c r="AL29" s="42"/>
     </row>
     <row r="30" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="47" t="s">
         <v>9</v>
       </c>
@@ -33616,9 +33068,9 @@
       <c r="AL30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="47" t="s">
         <v>9</v>
       </c>
@@ -33764,13 +33216,13 @@
       <c r="AL32" s="42"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="85"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="47" t="s">
         <v>9</v>
       </c>
@@ -33836,9 +33288,9 @@
       <c r="AL33" s="42"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="47" t="s">
         <v>9</v>
       </c>
@@ -33912,9 +33364,9 @@
       <c r="AL34" s="42"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="47" t="s">
         <v>9</v>
       </c>
@@ -33990,9 +33442,9 @@
       <c r="AL35" s="42"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="47" t="s">
         <v>9</v>
       </c>
@@ -34066,9 +33518,9 @@
       <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="47" t="s">
         <v>9</v>
       </c>
@@ -34132,9 +33584,9 @@
       <c r="AL37" s="42"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="47" t="s">
         <v>9</v>
       </c>
@@ -34198,9 +33650,9 @@
       <c r="AL38" s="42"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="47" t="s">
         <v>9</v>
       </c>
@@ -34264,9 +33716,9 @@
       <c r="AL39" s="42"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="47" t="s">
         <v>9</v>
       </c>
@@ -34340,9 +33792,9 @@
       <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="47" t="s">
         <v>9</v>
       </c>
@@ -34406,9 +33858,9 @@
       <c r="AL41" s="42"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="47" t="s">
         <v>9</v>
       </c>
@@ -34472,9 +33924,9 @@
       <c r="AL42" s="42"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="47" t="s">
         <v>9</v>
       </c>
@@ -36176,13 +35628,6 @@
     <row r="67" s="104" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A67:XFD67"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="C8:C17"/>
@@ -36199,6 +35644,13 @@
     <mergeCell ref="B33:B43"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B31"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B8 B1:B4 B6 B32:B33 B21 B23 B44:B63">
